--- a/app/price/Прайс_сетка_ochagh.com.ua-рулонка.xlsx
+++ b/app/price/Прайс_сетка_ochagh.com.ua-рулонка.xlsx
@@ -24,7 +24,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'99'!$8:$12</definedName>
     <definedName name="О125" localSheetId="0">#REF!</definedName>
     <definedName name="О125">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'99'!$A$1:$P$86</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'99'!$A$1:$P$87</definedName>
     <definedName name="с" localSheetId="0">#REF!</definedName>
     <definedName name="с">#REF!</definedName>
   </definedNames>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1314" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="117">
   <si>
     <t>Наименование продукции</t>
   </si>
@@ -578,7 +578,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -767,9 +767,48 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -802,7 +841,7 @@
     <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -938,9 +977,6 @@
     <xf numFmtId="0" fontId="19" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -953,8 +989,32 @@
     <xf numFmtId="2" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="24" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="18" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="18" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="3" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1001,35 +1061,38 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="24" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="18" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="18" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="18" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="18" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="18" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="1" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="25">
@@ -1126,14 +1189,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>107157</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>195674</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>607219</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>134555</xdr:rowOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>134554</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1356,13 +1419,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>107157</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>195674</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>607219</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>134555</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1402,13 +1465,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>166690</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1845469</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -1420,7 +1483,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm rot="16200000">
-          <a:off x="2297908" y="17014032"/>
+          <a:off x="2297908" y="17216438"/>
           <a:ext cx="0" cy="4262435"/>
           <a:chOff x="8777" y="1764"/>
           <a:chExt cx="2710" cy="4716"/>
@@ -2204,11 +2267,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P86"/>
+  <dimension ref="A1:P87"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <pane ySplit="13" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N28" sqref="N28"/>
+      <selection pane="bottomLeft" activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2303,7 +2366,7 @@
       <c r="L4" s="17"/>
       <c r="M4" s="17"/>
       <c r="N4" s="17"/>
-      <c r="O4" s="74" t="s">
+      <c r="O4" s="57" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2322,7 +2385,7 @@
       <c r="L5" s="11"/>
       <c r="M5" s="11"/>
       <c r="N5" s="11"/>
-      <c r="O5" s="75" t="s">
+      <c r="O5" s="58" t="s">
         <v>112</v>
       </c>
     </row>
@@ -2363,34 +2426,34 @@
       <c r="O7" s="20"/>
     </row>
     <row r="8" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="68"/>
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="68"/>
-      <c r="I8" s="68"/>
-      <c r="J8" s="68"/>
-      <c r="K8" s="68"/>
+      <c r="A8" s="75"/>
+      <c r="B8" s="75"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="75"/>
+      <c r="G8" s="75"/>
+      <c r="H8" s="75"/>
+      <c r="I8" s="75"/>
+      <c r="J8" s="75"/>
+      <c r="K8" s="75"/>
       <c r="L8" s="11"/>
       <c r="M8" s="11"/>
       <c r="N8" s="11"/>
       <c r="O8" s="12"/>
     </row>
     <row r="9" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="69"/>
-      <c r="B9" s="69"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="69"/>
-      <c r="J9" s="69"/>
-      <c r="K9" s="69"/>
+      <c r="A9" s="76"/>
+      <c r="B9" s="76"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="76"/>
       <c r="L9" s="11"/>
       <c r="M9" s="11"/>
       <c r="N9" s="11"/>
@@ -2414,8 +2477,8 @@
       <c r="O10" s="12"/>
     </row>
     <row r="11" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="70"/>
-      <c r="B11" s="70"/>
+      <c r="A11" s="77"/>
+      <c r="B11" s="77"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
@@ -2431,12 +2494,12 @@
       <c r="O11" s="12"/>
     </row>
     <row r="12" spans="1:16" ht="78" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="71" t="s">
+      <c r="A12" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="72"/>
-      <c r="C12" s="72"/>
-      <c r="D12" s="73"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="80"/>
       <c r="E12" s="43" t="s">
         <v>2</v>
       </c>
@@ -2467,7 +2530,7 @@
       <c r="N12" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="O12" s="76" t="s">
+      <c r="O12" s="59" t="s">
         <v>116</v>
       </c>
     </row>
@@ -2503,11 +2566,11 @@
       </c>
     </row>
     <row r="14" spans="1:16" ht="60.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="59"/>
-      <c r="B14" s="60"/>
-      <c r="C14" s="60"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="62"/>
+      <c r="A14" s="66"/>
+      <c r="B14" s="67"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="69"/>
       <c r="F14" s="4"/>
       <c r="G14" s="21" t="s">
         <v>34</v>
@@ -2525,11 +2588,11 @@
       <c r="P14" s="33"/>
     </row>
     <row r="15" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="59"/>
-      <c r="B15" s="60"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="62"/>
+      <c r="A15" s="66"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="69"/>
       <c r="F15" s="4"/>
       <c r="G15" s="31" t="s">
         <v>58</v>
@@ -2538,7 +2601,7 @@
         <v>23</v>
       </c>
       <c r="I15" s="7"/>
-      <c r="J15" s="54" t="s">
+      <c r="J15" s="53" t="s">
         <v>24</v>
       </c>
       <c r="K15" s="46" t="s">
@@ -2547,27 +2610,25 @@
       <c r="L15" s="51" t="s">
         <v>98</v>
       </c>
-      <c r="M15" s="77">
-        <f>O15*1.15</f>
-        <v>668.35124999999994</v>
-      </c>
-      <c r="N15" s="78">
-        <f>O15*1.1</f>
-        <v>639.29250000000002</v>
-      </c>
-      <c r="O15" s="78">
-        <v>581.17499999999995</v>
+      <c r="M15" s="60">
+        <v>735.4375</v>
+      </c>
+      <c r="N15" s="61">
+        <v>676.60249999999996</v>
+      </c>
+      <c r="O15" s="61">
+        <v>588.35</v>
       </c>
       <c r="P15" s="47">
         <v>579</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="59"/>
-      <c r="B16" s="60"/>
-      <c r="C16" s="60"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="62"/>
+      <c r="A16" s="66"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="69"/>
       <c r="F16" s="4"/>
       <c r="G16" s="31" t="s">
         <v>58</v>
@@ -2576,7 +2637,7 @@
         <v>23</v>
       </c>
       <c r="I16" s="7"/>
-      <c r="J16" s="54" t="s">
+      <c r="J16" s="53" t="s">
         <v>25</v>
       </c>
       <c r="K16" s="46" t="s">
@@ -2585,27 +2646,25 @@
       <c r="L16" s="51" t="s">
         <v>98</v>
       </c>
-      <c r="M16" s="77">
-        <f t="shared" ref="M16:M45" si="0">O16*1.15</f>
-        <v>768.48749999999995</v>
-      </c>
-      <c r="N16" s="78">
-        <f t="shared" ref="N16:N46" si="1">O16*1.1</f>
-        <v>735.07500000000005</v>
-      </c>
-      <c r="O16" s="78">
-        <v>668.25</v>
+      <c r="M16" s="60">
+        <v>845.625</v>
+      </c>
+      <c r="N16" s="61">
+        <v>777.97499999999991</v>
+      </c>
+      <c r="O16" s="61">
+        <v>676.5</v>
       </c>
       <c r="P16" s="47">
         <v>664</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="59"/>
-      <c r="B17" s="60"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="62"/>
+      <c r="A17" s="66"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="69"/>
       <c r="F17" s="4"/>
       <c r="G17" s="31" t="s">
         <v>58</v>
@@ -2614,7 +2673,7 @@
         <v>23</v>
       </c>
       <c r="I17" s="7"/>
-      <c r="J17" s="54" t="s">
+      <c r="J17" s="53" t="s">
         <v>26</v>
       </c>
       <c r="K17" s="46" t="s">
@@ -2623,27 +2682,25 @@
       <c r="L17" s="51" t="s">
         <v>98</v>
       </c>
-      <c r="M17" s="77">
-        <f t="shared" si="0"/>
-        <v>875.6099999999999</v>
-      </c>
-      <c r="N17" s="78">
-        <f t="shared" si="1"/>
-        <v>837.54000000000008</v>
-      </c>
-      <c r="O17" s="78">
-        <v>761.4</v>
+      <c r="M17" s="60">
+        <v>963.50000000000011</v>
+      </c>
+      <c r="N17" s="61">
+        <v>886.42</v>
+      </c>
+      <c r="O17" s="61">
+        <v>770.80000000000007</v>
       </c>
       <c r="P17" s="47">
         <v>764</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="59"/>
-      <c r="B18" s="60"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="62"/>
+      <c r="A18" s="66"/>
+      <c r="B18" s="67"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="69"/>
       <c r="F18" s="4"/>
       <c r="G18" s="31" t="s">
         <v>58</v>
@@ -2652,7 +2709,7 @@
         <v>23</v>
       </c>
       <c r="I18" s="7"/>
-      <c r="J18" s="54" t="s">
+      <c r="J18" s="53" t="s">
         <v>27</v>
       </c>
       <c r="K18" s="46" t="s">
@@ -2661,27 +2718,25 @@
       <c r="L18" s="51" t="s">
         <v>98</v>
       </c>
-      <c r="M18" s="77">
-        <f t="shared" si="0"/>
-        <v>1090.7864999999999</v>
-      </c>
-      <c r="N18" s="78">
-        <f t="shared" si="1"/>
-        <v>1043.3610000000001</v>
-      </c>
-      <c r="O18" s="78">
-        <v>948.5100000000001</v>
+      <c r="M18" s="60">
+        <v>1230</v>
+      </c>
+      <c r="N18" s="61">
+        <v>1131.5999999999999</v>
+      </c>
+      <c r="O18" s="61">
+        <v>984</v>
       </c>
       <c r="P18" s="47">
         <v>964</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="59"/>
-      <c r="B19" s="60"/>
-      <c r="C19" s="60"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="62"/>
+      <c r="A19" s="66"/>
+      <c r="B19" s="67"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="69"/>
       <c r="F19" s="4"/>
       <c r="G19" s="31" t="s">
         <v>58</v>
@@ -2690,7 +2745,7 @@
         <v>23</v>
       </c>
       <c r="I19" s="7"/>
-      <c r="J19" s="54" t="s">
+      <c r="J19" s="53" t="s">
         <v>28</v>
       </c>
       <c r="K19" s="50" t="s">
@@ -2699,27 +2754,25 @@
       <c r="L19" s="52" t="s">
         <v>99</v>
       </c>
-      <c r="M19" s="77">
-        <f t="shared" si="0"/>
-        <v>753.13499999999988</v>
-      </c>
-      <c r="N19" s="78">
-        <f t="shared" si="1"/>
-        <v>720.39</v>
-      </c>
-      <c r="O19" s="78">
-        <v>654.9</v>
+      <c r="M19" s="60">
+        <v>836.32499999999993</v>
+      </c>
+      <c r="N19" s="61">
+        <v>769.41899999999987</v>
+      </c>
+      <c r="O19" s="61">
+        <v>669.06</v>
       </c>
       <c r="P19" s="47">
         <v>652</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="59"/>
-      <c r="B20" s="60"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="62"/>
+      <c r="A20" s="66"/>
+      <c r="B20" s="67"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="69"/>
       <c r="F20" s="4"/>
       <c r="G20" s="31" t="s">
         <v>58</v>
@@ -2728,7 +2781,7 @@
         <v>23</v>
       </c>
       <c r="I20" s="7"/>
-      <c r="J20" s="54" t="s">
+      <c r="J20" s="53" t="s">
         <v>29</v>
       </c>
       <c r="K20" s="50" t="s">
@@ -2737,27 +2790,25 @@
       <c r="L20" s="52" t="s">
         <v>99</v>
       </c>
-      <c r="M20" s="77">
-        <f t="shared" si="0"/>
-        <v>1055.24</v>
-      </c>
-      <c r="N20" s="78">
-        <f t="shared" si="1"/>
-        <v>1009.3600000000001</v>
-      </c>
-      <c r="O20" s="78">
-        <v>917.6</v>
+      <c r="M20" s="60">
+        <v>1100.5</v>
+      </c>
+      <c r="N20" s="61">
+        <v>1012.4599999999999</v>
+      </c>
+      <c r="O20" s="61">
+        <v>880.4</v>
       </c>
       <c r="P20" s="47">
         <v>850</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="59"/>
-      <c r="B21" s="60"/>
-      <c r="C21" s="60"/>
-      <c r="D21" s="61"/>
-      <c r="E21" s="62"/>
+      <c r="A21" s="66"/>
+      <c r="B21" s="67"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="69"/>
       <c r="F21" s="4"/>
       <c r="G21" s="31" t="s">
         <v>58</v>
@@ -2766,7 +2817,7 @@
         <v>23</v>
       </c>
       <c r="I21" s="7"/>
-      <c r="J21" s="54" t="s">
+      <c r="J21" s="53" t="s">
         <v>21</v>
       </c>
       <c r="K21" s="50" t="s">
@@ -2775,15 +2826,13 @@
       <c r="L21" s="52" t="s">
         <v>99</v>
       </c>
-      <c r="M21" s="77">
-        <f t="shared" si="0"/>
+      <c r="M21" s="60">
+        <v>1423.125</v>
+      </c>
+      <c r="N21" s="61">
         <v>1309.2749999999999</v>
       </c>
-      <c r="N21" s="78">
-        <f t="shared" si="1"/>
-        <v>1252.3500000000001</v>
-      </c>
-      <c r="O21" s="78">
+      <c r="O21" s="61">
         <v>1138.5</v>
       </c>
       <c r="P21" s="47">
@@ -2791,11 +2840,11 @@
       </c>
     </row>
     <row r="22" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="59"/>
-      <c r="B22" s="60"/>
-      <c r="C22" s="60"/>
-      <c r="D22" s="61"/>
-      <c r="E22" s="62"/>
+      <c r="A22" s="66"/>
+      <c r="B22" s="67"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="69"/>
       <c r="F22" s="4"/>
       <c r="G22" s="31" t="s">
         <v>58</v>
@@ -2804,7 +2853,7 @@
         <v>23</v>
       </c>
       <c r="I22" s="7"/>
-      <c r="J22" s="54" t="s">
+      <c r="J22" s="53" t="s">
         <v>30</v>
       </c>
       <c r="K22" s="50" t="s">
@@ -2813,15 +2862,13 @@
       <c r="L22" s="52" t="s">
         <v>99</v>
       </c>
-      <c r="M22" s="77">
-        <f t="shared" si="0"/>
+      <c r="M22" s="60">
+        <v>1765.4999999999998</v>
+      </c>
+      <c r="N22" s="61">
         <v>1624.2599999999998</v>
       </c>
-      <c r="N22" s="78">
-        <f t="shared" si="1"/>
-        <v>1553.6399999999999</v>
-      </c>
-      <c r="O22" s="78">
+      <c r="O22" s="61">
         <v>1412.3999999999999</v>
       </c>
       <c r="P22" s="47">
@@ -2829,11 +2876,11 @@
       </c>
     </row>
     <row r="23" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="59"/>
-      <c r="B23" s="60"/>
-      <c r="C23" s="60"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="62"/>
+      <c r="A23" s="66"/>
+      <c r="B23" s="67"/>
+      <c r="C23" s="67"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="69"/>
       <c r="F23" s="4"/>
       <c r="G23" s="31" t="s">
         <v>58</v>
@@ -2842,7 +2889,7 @@
         <v>31</v>
       </c>
       <c r="I23" s="7"/>
-      <c r="J23" s="54" t="s">
+      <c r="J23" s="53" t="s">
         <v>24</v>
       </c>
       <c r="K23" s="46" t="s">
@@ -2851,27 +2898,25 @@
       <c r="L23" s="51" t="s">
         <v>98</v>
       </c>
-      <c r="M23" s="77">
-        <f t="shared" si="0"/>
-        <v>503.01</v>
-      </c>
-      <c r="N23" s="78">
-        <f t="shared" si="1"/>
-        <v>481.1400000000001</v>
-      </c>
-      <c r="O23" s="78">
-        <v>437.40000000000003</v>
+      <c r="M23" s="60">
+        <v>553.5</v>
+      </c>
+      <c r="N23" s="61">
+        <v>509.21999999999997</v>
+      </c>
+      <c r="O23" s="61">
+        <v>442.8</v>
       </c>
       <c r="P23" s="47">
         <v>435</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="59"/>
-      <c r="B24" s="60"/>
-      <c r="C24" s="60"/>
-      <c r="D24" s="61"/>
-      <c r="E24" s="62"/>
+      <c r="A24" s="66"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="69"/>
       <c r="F24" s="4"/>
       <c r="G24" s="31" t="s">
         <v>58</v>
@@ -2880,7 +2925,7 @@
         <v>31</v>
       </c>
       <c r="I24" s="7"/>
-      <c r="J24" s="54" t="s">
+      <c r="J24" s="53" t="s">
         <v>25</v>
       </c>
       <c r="K24" s="46" t="s">
@@ -2889,27 +2934,25 @@
       <c r="L24" s="51" t="s">
         <v>98</v>
       </c>
-      <c r="M24" s="77">
-        <f t="shared" si="0"/>
-        <v>584.51625000000001</v>
-      </c>
-      <c r="N24" s="78">
-        <f t="shared" si="1"/>
-        <v>559.10250000000008</v>
-      </c>
-      <c r="O24" s="78">
-        <v>508.27500000000003</v>
+      <c r="M24" s="60">
+        <v>643.18750000000011</v>
+      </c>
+      <c r="N24" s="61">
+        <v>591.73250000000007</v>
+      </c>
+      <c r="O24" s="61">
+        <v>514.55000000000007</v>
       </c>
       <c r="P24" s="47">
         <v>506</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="59"/>
-      <c r="B25" s="60"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="62"/>
+      <c r="A25" s="66"/>
+      <c r="B25" s="67"/>
+      <c r="C25" s="67"/>
+      <c r="D25" s="68"/>
+      <c r="E25" s="69"/>
       <c r="F25" s="4"/>
       <c r="G25" s="31" t="s">
         <v>58</v>
@@ -2918,7 +2961,7 @@
         <v>31</v>
       </c>
       <c r="I25" s="7"/>
-      <c r="J25" s="54" t="s">
+      <c r="J25" s="53" t="s">
         <v>26</v>
       </c>
       <c r="K25" s="46" t="s">
@@ -2927,27 +2970,25 @@
       <c r="L25" s="51" t="s">
         <v>98</v>
       </c>
-      <c r="M25" s="77">
-        <f t="shared" si="0"/>
-        <v>668.35124999999994</v>
-      </c>
-      <c r="N25" s="78">
-        <f t="shared" si="1"/>
-        <v>639.29250000000002</v>
-      </c>
-      <c r="O25" s="78">
-        <v>581.17499999999995</v>
+      <c r="M25" s="60">
+        <v>735.4375</v>
+      </c>
+      <c r="N25" s="61">
+        <v>676.60249999999996</v>
+      </c>
+      <c r="O25" s="61">
+        <v>588.35</v>
       </c>
       <c r="P25" s="47">
         <v>579</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="59"/>
-      <c r="B26" s="60"/>
-      <c r="C26" s="60"/>
-      <c r="D26" s="61"/>
-      <c r="E26" s="62"/>
+      <c r="A26" s="66"/>
+      <c r="B26" s="67"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="68"/>
+      <c r="E26" s="69"/>
       <c r="F26" s="4"/>
       <c r="G26" s="31" t="s">
         <v>58</v>
@@ -2956,7 +2997,7 @@
         <v>31</v>
       </c>
       <c r="I26" s="7"/>
-      <c r="J26" s="54" t="s">
+      <c r="J26" s="53" t="s">
         <v>27</v>
       </c>
       <c r="K26" s="46" t="s">
@@ -2965,27 +3006,25 @@
       <c r="L26" s="51" t="s">
         <v>98</v>
       </c>
-      <c r="M26" s="77">
-        <f t="shared" si="0"/>
-        <v>833.69249999999988</v>
-      </c>
-      <c r="N26" s="78">
-        <f t="shared" si="1"/>
-        <v>797.44499999999994</v>
-      </c>
-      <c r="O26" s="78">
-        <v>724.94999999999993</v>
+      <c r="M26" s="60">
+        <v>917.375</v>
+      </c>
+      <c r="N26" s="61">
+        <v>843.9849999999999</v>
+      </c>
+      <c r="O26" s="61">
+        <v>733.9</v>
       </c>
       <c r="P26" s="47">
         <v>723</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="59"/>
-      <c r="B27" s="60"/>
-      <c r="C27" s="60"/>
-      <c r="D27" s="61"/>
-      <c r="E27" s="62"/>
+      <c r="A27" s="66"/>
+      <c r="B27" s="67"/>
+      <c r="C27" s="67"/>
+      <c r="D27" s="68"/>
+      <c r="E27" s="69"/>
       <c r="F27" s="4"/>
       <c r="G27" s="31" t="s">
         <v>58</v>
@@ -2994,7 +3033,7 @@
         <v>31</v>
       </c>
       <c r="I27" s="7"/>
-      <c r="J27" s="54" t="s">
+      <c r="J27" s="53" t="s">
         <v>28</v>
       </c>
       <c r="K27" s="46" t="s">
@@ -3003,27 +3042,25 @@
       <c r="L27" s="51" t="s">
         <v>98</v>
       </c>
-      <c r="M27" s="77">
-        <f t="shared" si="0"/>
-        <v>1142.4675</v>
-      </c>
-      <c r="N27" s="78">
-        <f t="shared" si="1"/>
-        <v>1092.7950000000001</v>
-      </c>
-      <c r="O27" s="78">
-        <v>993.45</v>
+      <c r="M27" s="60">
+        <v>1268.6624999999999</v>
+      </c>
+      <c r="N27" s="61">
+        <v>1167.1694999999997</v>
+      </c>
+      <c r="O27" s="61">
+        <v>1014.93</v>
       </c>
       <c r="P27" s="47">
         <v>986</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="59"/>
-      <c r="B28" s="60"/>
-      <c r="C28" s="60"/>
-      <c r="D28" s="61"/>
-      <c r="E28" s="62"/>
+      <c r="A28" s="66"/>
+      <c r="B28" s="67"/>
+      <c r="C28" s="67"/>
+      <c r="D28" s="68"/>
+      <c r="E28" s="69"/>
       <c r="F28" s="4"/>
       <c r="G28" s="31" t="s">
         <v>58</v>
@@ -3032,7 +3069,7 @@
         <v>31</v>
       </c>
       <c r="I28" s="7"/>
-      <c r="J28" s="54" t="s">
+      <c r="J28" s="53" t="s">
         <v>29</v>
       </c>
       <c r="K28" s="50" t="s">
@@ -3041,27 +3078,25 @@
       <c r="L28" s="52" t="s">
         <v>99</v>
       </c>
-      <c r="M28" s="77">
-        <f t="shared" si="0"/>
-        <v>765.9</v>
-      </c>
-      <c r="N28" s="78">
-        <f t="shared" si="1"/>
-        <v>732.6</v>
-      </c>
-      <c r="O28" s="78">
-        <v>666</v>
+      <c r="M28" s="60">
+        <v>798.75</v>
+      </c>
+      <c r="N28" s="61">
+        <v>734.84999999999991</v>
+      </c>
+      <c r="O28" s="61">
+        <v>639</v>
       </c>
       <c r="P28" s="47">
         <v>630</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="59"/>
-      <c r="B29" s="60"/>
-      <c r="C29" s="60"/>
-      <c r="D29" s="61"/>
-      <c r="E29" s="62"/>
+      <c r="A29" s="66"/>
+      <c r="B29" s="67"/>
+      <c r="C29" s="67"/>
+      <c r="D29" s="68"/>
+      <c r="E29" s="69"/>
       <c r="F29" s="4"/>
       <c r="G29" s="31" t="s">
         <v>58</v>
@@ -3070,7 +3105,7 @@
         <v>31</v>
       </c>
       <c r="I29" s="7"/>
-      <c r="J29" s="54" t="s">
+      <c r="J29" s="53" t="s">
         <v>21</v>
       </c>
       <c r="K29" s="50" t="s">
@@ -3079,15 +3114,13 @@
       <c r="L29" s="52" t="s">
         <v>99</v>
       </c>
-      <c r="M29" s="77">
-        <f t="shared" si="0"/>
+      <c r="M29" s="60">
+        <v>1078.125</v>
+      </c>
+      <c r="N29" s="61">
         <v>991.87499999999989</v>
       </c>
-      <c r="N29" s="78">
-        <f t="shared" si="1"/>
-        <v>948.75000000000011</v>
-      </c>
-      <c r="O29" s="78">
+      <c r="O29" s="61">
         <v>862.5</v>
       </c>
       <c r="P29" s="47">
@@ -3095,11 +3128,11 @@
       </c>
     </row>
     <row r="30" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="59"/>
-      <c r="B30" s="60"/>
-      <c r="C30" s="60"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="62"/>
+      <c r="A30" s="66"/>
+      <c r="B30" s="67"/>
+      <c r="C30" s="67"/>
+      <c r="D30" s="68"/>
+      <c r="E30" s="69"/>
       <c r="F30" s="4"/>
       <c r="G30" s="31" t="s">
         <v>58</v>
@@ -3108,7 +3141,7 @@
         <v>31</v>
       </c>
       <c r="I30" s="7"/>
-      <c r="J30" s="54" t="s">
+      <c r="J30" s="53" t="s">
         <v>30</v>
       </c>
       <c r="K30" s="50" t="s">
@@ -3117,15 +3150,13 @@
       <c r="L30" s="52" t="s">
         <v>99</v>
       </c>
-      <c r="M30" s="77">
-        <f t="shared" si="0"/>
+      <c r="M30" s="60">
+        <v>1320</v>
+      </c>
+      <c r="N30" s="61">
         <v>1214.3999999999999</v>
       </c>
-      <c r="N30" s="78">
-        <f t="shared" si="1"/>
-        <v>1161.6000000000001</v>
-      </c>
-      <c r="O30" s="78">
+      <c r="O30" s="61">
         <v>1056</v>
       </c>
       <c r="P30" s="47">
@@ -3133,11 +3164,11 @@
       </c>
     </row>
     <row r="31" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="59"/>
-      <c r="B31" s="60"/>
-      <c r="C31" s="60"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="62"/>
+      <c r="A31" s="66"/>
+      <c r="B31" s="67"/>
+      <c r="C31" s="67"/>
+      <c r="D31" s="68"/>
+      <c r="E31" s="69"/>
       <c r="F31" s="4"/>
       <c r="G31" s="31" t="s">
         <v>58</v>
@@ -3146,7 +3177,7 @@
         <v>32</v>
       </c>
       <c r="I31" s="7"/>
-      <c r="J31" s="54" t="s">
+      <c r="J31" s="53" t="s">
         <v>24</v>
       </c>
       <c r="K31" s="46" t="s">
@@ -3155,27 +3186,25 @@
       <c r="L31" s="51" t="s">
         <v>98</v>
       </c>
-      <c r="M31" s="77">
-        <f t="shared" si="0"/>
-        <v>335.34</v>
-      </c>
-      <c r="N31" s="78">
-        <f t="shared" si="1"/>
-        <v>320.76000000000005</v>
-      </c>
-      <c r="O31" s="78">
-        <v>291.60000000000002</v>
+      <c r="M31" s="60">
+        <v>369</v>
+      </c>
+      <c r="N31" s="61">
+        <v>339.47999999999996</v>
+      </c>
+      <c r="O31" s="61">
+        <v>295.2</v>
       </c>
       <c r="P31" s="47">
         <v>291</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="59"/>
-      <c r="B32" s="60"/>
-      <c r="C32" s="60"/>
-      <c r="D32" s="61"/>
-      <c r="E32" s="62"/>
+      <c r="A32" s="66"/>
+      <c r="B32" s="67"/>
+      <c r="C32" s="67"/>
+      <c r="D32" s="68"/>
+      <c r="E32" s="69"/>
       <c r="F32" s="4"/>
       <c r="G32" s="31" t="s">
         <v>58</v>
@@ -3184,7 +3213,7 @@
         <v>32</v>
       </c>
       <c r="I32" s="7"/>
-      <c r="J32" s="54" t="s">
+      <c r="J32" s="53" t="s">
         <v>25</v>
       </c>
       <c r="K32" s="46" t="s">
@@ -3193,27 +3222,25 @@
       <c r="L32" s="51" t="s">
         <v>98</v>
       </c>
-      <c r="M32" s="77">
-        <f t="shared" si="0"/>
-        <v>391.22999999999996</v>
-      </c>
-      <c r="N32" s="78">
-        <f t="shared" si="1"/>
-        <v>374.22</v>
-      </c>
-      <c r="O32" s="78">
-        <v>340.2</v>
+      <c r="M32" s="60">
+        <v>430.50000000000006</v>
+      </c>
+      <c r="N32" s="61">
+        <v>396.06</v>
+      </c>
+      <c r="O32" s="61">
+        <v>344.40000000000003</v>
       </c>
       <c r="P32" s="47">
         <v>340</v>
       </c>
     </row>
     <row r="33" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="59"/>
-      <c r="B33" s="60"/>
-      <c r="C33" s="60"/>
-      <c r="D33" s="61"/>
-      <c r="E33" s="62"/>
+      <c r="A33" s="66"/>
+      <c r="B33" s="67"/>
+      <c r="C33" s="67"/>
+      <c r="D33" s="68"/>
+      <c r="E33" s="69"/>
       <c r="F33" s="4"/>
       <c r="G33" s="31" t="s">
         <v>58</v>
@@ -3222,7 +3249,7 @@
         <v>32</v>
       </c>
       <c r="I33" s="7"/>
-      <c r="J33" s="54" t="s">
+      <c r="J33" s="53" t="s">
         <v>26</v>
       </c>
       <c r="K33" s="46" t="s">
@@ -3231,27 +3258,25 @@
       <c r="L33" s="51" t="s">
         <v>98</v>
       </c>
-      <c r="M33" s="77">
-        <f t="shared" si="0"/>
-        <v>447.12</v>
-      </c>
-      <c r="N33" s="78">
-        <f t="shared" si="1"/>
-        <v>427.68000000000006</v>
-      </c>
-      <c r="O33" s="78">
-        <v>388.8</v>
+      <c r="M33" s="60">
+        <v>491.99999999999994</v>
+      </c>
+      <c r="N33" s="61">
+        <v>452.63999999999993</v>
+      </c>
+      <c r="O33" s="61">
+        <v>393.59999999999997</v>
       </c>
       <c r="P33" s="47">
         <v>389</v>
       </c>
     </row>
     <row r="34" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="59"/>
-      <c r="B34" s="60"/>
-      <c r="C34" s="60"/>
-      <c r="D34" s="61"/>
-      <c r="E34" s="62"/>
+      <c r="A34" s="66"/>
+      <c r="B34" s="67"/>
+      <c r="C34" s="67"/>
+      <c r="D34" s="68"/>
+      <c r="E34" s="69"/>
       <c r="F34" s="4"/>
       <c r="G34" s="31" t="s">
         <v>58</v>
@@ -3260,7 +3285,7 @@
         <v>32</v>
       </c>
       <c r="I34" s="7"/>
-      <c r="J34" s="54" t="s">
+      <c r="J34" s="53" t="s">
         <v>27</v>
       </c>
       <c r="K34" s="46" t="s">
@@ -3269,27 +3294,25 @@
       <c r="L34" s="51" t="s">
         <v>98</v>
       </c>
-      <c r="M34" s="77">
-        <f t="shared" si="0"/>
-        <v>558.9</v>
-      </c>
-      <c r="N34" s="78">
-        <f t="shared" si="1"/>
-        <v>534.6</v>
-      </c>
-      <c r="O34" s="78">
-        <v>486</v>
+      <c r="M34" s="60">
+        <v>615</v>
+      </c>
+      <c r="N34" s="61">
+        <v>565.79999999999995</v>
+      </c>
+      <c r="O34" s="61">
+        <v>492</v>
       </c>
       <c r="P34" s="47">
         <v>488</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="59"/>
-      <c r="B35" s="60"/>
-      <c r="C35" s="60"/>
-      <c r="D35" s="61"/>
-      <c r="E35" s="62"/>
+      <c r="A35" s="66"/>
+      <c r="B35" s="67"/>
+      <c r="C35" s="67"/>
+      <c r="D35" s="68"/>
+      <c r="E35" s="69"/>
       <c r="F35" s="4"/>
       <c r="G35" s="31" t="s">
         <v>58</v>
@@ -3298,7 +3321,7 @@
         <v>32</v>
       </c>
       <c r="I35" s="7"/>
-      <c r="J35" s="54" t="s">
+      <c r="J35" s="53" t="s">
         <v>28</v>
       </c>
       <c r="K35" s="46" t="s">
@@ -3307,27 +3330,25 @@
       <c r="L35" s="51" t="s">
         <v>98</v>
       </c>
-      <c r="M35" s="77">
-        <f t="shared" si="0"/>
-        <v>765.9</v>
-      </c>
-      <c r="N35" s="78">
-        <f t="shared" si="1"/>
-        <v>732.6</v>
-      </c>
-      <c r="O35" s="78">
-        <v>666</v>
+      <c r="M35" s="60">
+        <v>850.5</v>
+      </c>
+      <c r="N35" s="61">
+        <v>782.45999999999992</v>
+      </c>
+      <c r="O35" s="61">
+        <v>680.4</v>
       </c>
       <c r="P35" s="47">
         <v>664</v>
       </c>
     </row>
     <row r="36" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="59"/>
-      <c r="B36" s="60"/>
-      <c r="C36" s="60"/>
-      <c r="D36" s="61"/>
-      <c r="E36" s="62"/>
+      <c r="A36" s="66"/>
+      <c r="B36" s="67"/>
+      <c r="C36" s="67"/>
+      <c r="D36" s="68"/>
+      <c r="E36" s="69"/>
       <c r="F36" s="4"/>
       <c r="G36" s="31" t="s">
         <v>58</v>
@@ -3336,7 +3357,7 @@
         <v>32</v>
       </c>
       <c r="I36" s="7"/>
-      <c r="J36" s="54" t="s">
+      <c r="J36" s="53" t="s">
         <v>29</v>
       </c>
       <c r="K36" s="46" t="s">
@@ -3345,27 +3366,25 @@
       <c r="L36" s="51" t="s">
         <v>98</v>
       </c>
-      <c r="M36" s="77">
-        <f t="shared" si="0"/>
-        <v>1021.1999999999999</v>
-      </c>
-      <c r="N36" s="78">
-        <f t="shared" si="1"/>
-        <v>976.80000000000007</v>
-      </c>
-      <c r="O36" s="78">
-        <v>888</v>
+      <c r="M36" s="60">
+        <v>1065</v>
+      </c>
+      <c r="N36" s="61">
+        <v>979.8</v>
+      </c>
+      <c r="O36" s="61">
+        <v>852</v>
       </c>
       <c r="P36" s="47">
         <v>829</v>
       </c>
     </row>
     <row r="37" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="59"/>
-      <c r="B37" s="60"/>
-      <c r="C37" s="60"/>
-      <c r="D37" s="61"/>
-      <c r="E37" s="62"/>
+      <c r="A37" s="66"/>
+      <c r="B37" s="67"/>
+      <c r="C37" s="67"/>
+      <c r="D37" s="68"/>
+      <c r="E37" s="69"/>
       <c r="F37" s="4"/>
       <c r="G37" s="31" t="s">
         <v>58</v>
@@ -3374,7 +3393,7 @@
         <v>32</v>
       </c>
       <c r="I37" s="7"/>
-      <c r="J37" s="54" t="s">
+      <c r="J37" s="53" t="s">
         <v>21</v>
       </c>
       <c r="K37" s="46" t="s">
@@ -3383,15 +3402,13 @@
       <c r="L37" s="51" t="s">
         <v>98</v>
       </c>
-      <c r="M37" s="77">
-        <f t="shared" si="0"/>
+      <c r="M37" s="60">
+        <v>1440.375</v>
+      </c>
+      <c r="N37" s="61">
         <v>1325.1449999999998</v>
       </c>
-      <c r="N37" s="78">
-        <f t="shared" si="1"/>
-        <v>1267.53</v>
-      </c>
-      <c r="O37" s="78">
+      <c r="O37" s="61">
         <v>1152.3</v>
       </c>
       <c r="P37" s="47">
@@ -3399,11 +3416,11 @@
       </c>
     </row>
     <row r="38" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="59"/>
-      <c r="B38" s="60"/>
-      <c r="C38" s="60"/>
-      <c r="D38" s="61"/>
-      <c r="E38" s="62"/>
+      <c r="A38" s="66"/>
+      <c r="B38" s="67"/>
+      <c r="C38" s="67"/>
+      <c r="D38" s="68"/>
+      <c r="E38" s="69"/>
       <c r="F38" s="4"/>
       <c r="G38" s="31" t="s">
         <v>58</v>
@@ -3412,7 +3429,7 @@
         <v>32</v>
       </c>
       <c r="I38" s="7"/>
-      <c r="J38" s="54" t="s">
+      <c r="J38" s="53" t="s">
         <v>30</v>
       </c>
       <c r="K38" s="50" t="s">
@@ -3421,15 +3438,13 @@
       <c r="L38" s="52" t="s">
         <v>99</v>
       </c>
-      <c r="M38" s="77">
-        <f t="shared" si="0"/>
+      <c r="M38" s="60">
+        <v>990</v>
+      </c>
+      <c r="N38" s="61">
         <v>910.8</v>
       </c>
-      <c r="N38" s="78">
-        <f t="shared" si="1"/>
-        <v>871.2</v>
-      </c>
-      <c r="O38" s="78">
+      <c r="O38" s="61">
         <v>792</v>
       </c>
       <c r="P38" s="47">
@@ -3437,11 +3452,11 @@
       </c>
     </row>
     <row r="39" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="59"/>
-      <c r="B39" s="60"/>
-      <c r="C39" s="60"/>
-      <c r="D39" s="61"/>
-      <c r="E39" s="62"/>
+      <c r="A39" s="66"/>
+      <c r="B39" s="67"/>
+      <c r="C39" s="67"/>
+      <c r="D39" s="68"/>
+      <c r="E39" s="69"/>
       <c r="F39" s="4"/>
       <c r="G39" s="31" t="s">
         <v>58</v>
@@ -3450,7 +3465,7 @@
         <v>33</v>
       </c>
       <c r="I39" s="7"/>
-      <c r="J39" s="54" t="s">
+      <c r="J39" s="53" t="s">
         <v>28</v>
       </c>
       <c r="K39" s="46" t="s">
@@ -3459,27 +3474,25 @@
       <c r="L39" s="51" t="s">
         <v>98</v>
       </c>
-      <c r="M39" s="77">
-        <f t="shared" si="0"/>
-        <v>571.4464999999999</v>
-      </c>
-      <c r="N39" s="78">
-        <f t="shared" si="1"/>
-        <v>546.601</v>
-      </c>
-      <c r="O39" s="78">
-        <v>496.90999999999997</v>
+      <c r="M39" s="60">
+        <v>634.56749999999988</v>
+      </c>
+      <c r="N39" s="61">
+        <v>583.80209999999988</v>
+      </c>
+      <c r="O39" s="61">
+        <v>507.65399999999994</v>
       </c>
       <c r="P39" s="47">
         <v>493</v>
       </c>
     </row>
     <row r="40" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="59"/>
-      <c r="B40" s="60"/>
-      <c r="C40" s="60"/>
-      <c r="D40" s="61"/>
-      <c r="E40" s="62"/>
+      <c r="A40" s="66"/>
+      <c r="B40" s="67"/>
+      <c r="C40" s="67"/>
+      <c r="D40" s="68"/>
+      <c r="E40" s="69"/>
       <c r="F40" s="4"/>
       <c r="G40" s="31" t="s">
         <v>58</v>
@@ -3488,7 +3501,7 @@
         <v>33</v>
       </c>
       <c r="I40" s="7"/>
-      <c r="J40" s="54" t="s">
+      <c r="J40" s="53" t="s">
         <v>29</v>
       </c>
       <c r="K40" s="46" t="s">
@@ -3497,27 +3510,25 @@
       <c r="L40" s="51" t="s">
         <v>98</v>
       </c>
-      <c r="M40" s="77">
-        <f t="shared" si="0"/>
-        <v>797.81249999999989</v>
-      </c>
-      <c r="N40" s="78">
-        <f t="shared" si="1"/>
-        <v>763.12500000000011</v>
-      </c>
-      <c r="O40" s="78">
-        <v>693.75</v>
+      <c r="M40" s="60">
+        <v>832.03125</v>
+      </c>
+      <c r="N40" s="61">
+        <v>765.46874999999989</v>
+      </c>
+      <c r="O40" s="61">
+        <v>665.625</v>
       </c>
       <c r="P40" s="47">
         <v>642</v>
       </c>
     </row>
     <row r="41" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="59"/>
-      <c r="B41" s="60"/>
-      <c r="C41" s="60"/>
-      <c r="D41" s="61"/>
-      <c r="E41" s="62"/>
+      <c r="A41" s="66"/>
+      <c r="B41" s="67"/>
+      <c r="C41" s="67"/>
+      <c r="D41" s="68"/>
+      <c r="E41" s="69"/>
       <c r="F41" s="4"/>
       <c r="G41" s="31" t="s">
         <v>58</v>
@@ -3526,7 +3537,7 @@
         <v>33</v>
       </c>
       <c r="I41" s="7"/>
-      <c r="J41" s="54" t="s">
+      <c r="J41" s="53" t="s">
         <v>21</v>
       </c>
       <c r="K41" s="46" t="s">
@@ -3535,15 +3546,13 @@
       <c r="L41" s="51" t="s">
         <v>98</v>
       </c>
-      <c r="M41" s="77">
-        <f t="shared" si="0"/>
+      <c r="M41" s="60">
+        <v>1056.5625</v>
+      </c>
+      <c r="N41" s="61">
         <v>972.03749999999991</v>
       </c>
-      <c r="N41" s="78">
-        <f t="shared" si="1"/>
-        <v>929.77500000000009</v>
-      </c>
-      <c r="O41" s="78">
+      <c r="O41" s="61">
         <v>845.25</v>
       </c>
       <c r="P41" s="47">
@@ -3551,11 +3560,11 @@
       </c>
     </row>
     <row r="42" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="59"/>
-      <c r="B42" s="60"/>
-      <c r="C42" s="60"/>
-      <c r="D42" s="61"/>
-      <c r="E42" s="62"/>
+      <c r="A42" s="66"/>
+      <c r="B42" s="67"/>
+      <c r="C42" s="67"/>
+      <c r="D42" s="68"/>
+      <c r="E42" s="69"/>
       <c r="F42" s="4"/>
       <c r="G42" s="31" t="s">
         <v>58</v>
@@ -3564,7 +3573,7 @@
         <v>33</v>
       </c>
       <c r="I42" s="7"/>
-      <c r="J42" s="54" t="s">
+      <c r="J42" s="53" t="s">
         <v>30</v>
       </c>
       <c r="K42" s="46" t="s">
@@ -3573,15 +3582,13 @@
       <c r="L42" s="51" t="s">
         <v>98</v>
       </c>
-      <c r="M42" s="77">
-        <f t="shared" si="0"/>
+      <c r="M42" s="60">
+        <v>1336.5</v>
+      </c>
+      <c r="N42" s="61">
         <v>1229.58</v>
       </c>
-      <c r="N42" s="78">
-        <f t="shared" si="1"/>
-        <v>1176.1200000000001</v>
-      </c>
-      <c r="O42" s="78">
+      <c r="O42" s="61">
         <v>1069.2</v>
       </c>
       <c r="P42" s="47">
@@ -3589,11 +3596,11 @@
       </c>
     </row>
     <row r="43" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="59"/>
-      <c r="B43" s="60"/>
-      <c r="C43" s="60"/>
-      <c r="D43" s="61"/>
-      <c r="E43" s="62"/>
+      <c r="A43" s="66"/>
+      <c r="B43" s="67"/>
+      <c r="C43" s="67"/>
+      <c r="D43" s="68"/>
+      <c r="E43" s="69"/>
       <c r="F43" s="4"/>
       <c r="G43" s="31" t="s">
         <v>58</v>
@@ -3602,7 +3609,7 @@
         <v>10</v>
       </c>
       <c r="I43" s="7"/>
-      <c r="J43" s="54" t="s">
+      <c r="J43" s="53" t="s">
         <v>28</v>
       </c>
       <c r="K43" s="46" t="s">
@@ -3611,27 +3618,25 @@
       <c r="L43" s="51" t="s">
         <v>98</v>
       </c>
-      <c r="M43" s="77">
-        <f t="shared" si="0"/>
-        <v>391.45999999999992</v>
-      </c>
-      <c r="N43" s="78">
-        <f t="shared" si="1"/>
-        <v>374.44</v>
-      </c>
-      <c r="O43" s="78">
-        <v>340.4</v>
+      <c r="M43" s="60">
+        <v>434.69999999999993</v>
+      </c>
+      <c r="N43" s="61">
+        <v>399.92399999999992</v>
+      </c>
+      <c r="O43" s="61">
+        <v>347.75999999999993</v>
       </c>
       <c r="P43" s="47">
         <v>338</v>
       </c>
     </row>
     <row r="44" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="59"/>
-      <c r="B44" s="60"/>
-      <c r="C44" s="60"/>
-      <c r="D44" s="61"/>
-      <c r="E44" s="62"/>
+      <c r="A44" s="66"/>
+      <c r="B44" s="67"/>
+      <c r="C44" s="67"/>
+      <c r="D44" s="68"/>
+      <c r="E44" s="69"/>
       <c r="F44" s="4"/>
       <c r="G44" s="31" t="s">
         <v>58</v>
@@ -3640,7 +3645,7 @@
         <v>10</v>
       </c>
       <c r="I44" s="7"/>
-      <c r="J44" s="54" t="s">
+      <c r="J44" s="53" t="s">
         <v>29</v>
       </c>
       <c r="K44" s="46" t="s">
@@ -3649,27 +3654,25 @@
       <c r="L44" s="51" t="s">
         <v>98</v>
       </c>
-      <c r="M44" s="77">
-        <f t="shared" si="0"/>
-        <v>544.64</v>
-      </c>
-      <c r="N44" s="78">
-        <f t="shared" si="1"/>
-        <v>520.96</v>
-      </c>
-      <c r="O44" s="78">
-        <v>473.6</v>
+      <c r="M44" s="60">
+        <v>568</v>
+      </c>
+      <c r="N44" s="61">
+        <v>522.55999999999995</v>
+      </c>
+      <c r="O44" s="61">
+        <v>454.40000000000003</v>
       </c>
       <c r="P44" s="47">
         <v>436</v>
       </c>
     </row>
     <row r="45" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="59"/>
-      <c r="B45" s="60"/>
-      <c r="C45" s="60"/>
-      <c r="D45" s="61"/>
-      <c r="E45" s="62"/>
+      <c r="A45" s="66"/>
+      <c r="B45" s="67"/>
+      <c r="C45" s="67"/>
+      <c r="D45" s="68"/>
+      <c r="E45" s="69"/>
       <c r="F45" s="4"/>
       <c r="G45" s="31" t="s">
         <v>58</v>
@@ -3678,7 +3681,7 @@
         <v>10</v>
       </c>
       <c r="I45" s="7"/>
-      <c r="J45" s="54" t="s">
+      <c r="J45" s="53" t="s">
         <v>21</v>
       </c>
       <c r="K45" s="46" t="s">
@@ -3687,15 +3690,13 @@
       <c r="L45" s="51" t="s">
         <v>98</v>
       </c>
-      <c r="M45" s="77">
-        <f t="shared" si="0"/>
+      <c r="M45" s="60">
+        <v>737.00625000000002</v>
+      </c>
+      <c r="N45" s="61">
         <v>678.04575</v>
       </c>
-      <c r="N45" s="78">
-        <f t="shared" si="1"/>
-        <v>648.56550000000004</v>
-      </c>
-      <c r="O45" s="78">
+      <c r="O45" s="61">
         <v>589.60500000000002</v>
       </c>
       <c r="P45" s="47">
@@ -3703,154 +3704,146 @@
       </c>
     </row>
     <row r="46" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="59"/>
-      <c r="B46" s="60"/>
-      <c r="C46" s="60"/>
-      <c r="D46" s="61"/>
-      <c r="E46" s="62"/>
+      <c r="A46" s="66"/>
+      <c r="B46" s="67"/>
+      <c r="C46" s="67"/>
+      <c r="D46" s="68"/>
+      <c r="E46" s="69"/>
       <c r="F46" s="4"/>
-      <c r="G46" s="31" t="s">
+      <c r="G46" s="82" t="s">
         <v>58</v>
       </c>
-      <c r="H46" s="7" t="s">
+      <c r="H46" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="I46" s="7"/>
-      <c r="J46" s="54" t="s">
+      <c r="I46" s="83"/>
+      <c r="J46" s="84" t="s">
         <v>30</v>
       </c>
-      <c r="K46" s="46" t="s">
+      <c r="K46" s="85" t="s">
         <v>106</v>
       </c>
-      <c r="L46" s="51" t="s">
+      <c r="L46" s="86" t="s">
         <v>98</v>
       </c>
-      <c r="M46" s="77">
-        <f>O46*1.15</f>
+      <c r="M46" s="87">
+        <v>913.68749999999989</v>
+      </c>
+      <c r="N46" s="88">
         <v>840.59249999999986</v>
       </c>
-      <c r="N46" s="78">
-        <f t="shared" si="1"/>
-        <v>804.04499999999996</v>
-      </c>
-      <c r="O46" s="78">
+      <c r="O46" s="88">
         <v>730.94999999999993</v>
       </c>
       <c r="P46" s="47">
         <v>678</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="59"/>
-      <c r="B47" s="60"/>
-      <c r="C47" s="60"/>
-      <c r="D47" s="61"/>
-      <c r="E47" s="62"/>
+    <row r="47" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="66"/>
+      <c r="B47" s="67"/>
+      <c r="C47" s="67"/>
+      <c r="D47" s="68"/>
+      <c r="E47" s="69"/>
       <c r="F47" s="4"/>
-      <c r="G47" s="21"/>
-      <c r="H47" s="22" t="s">
+      <c r="G47" s="82" t="s">
+        <v>58</v>
+      </c>
+      <c r="H47" s="83" t="s">
+        <v>10</v>
+      </c>
+      <c r="I47" s="83"/>
+      <c r="J47" s="89" t="s">
+        <v>39</v>
+      </c>
+      <c r="K47" s="85" t="s">
+        <v>106</v>
+      </c>
+      <c r="L47" s="86" t="s">
+        <v>98</v>
+      </c>
+      <c r="M47" s="90">
+        <v>1212.75</v>
+      </c>
+      <c r="N47" s="91">
+        <v>1115.73</v>
+      </c>
+      <c r="O47" s="91">
+        <v>970.2</v>
+      </c>
+      <c r="P47" s="81"/>
+    </row>
+    <row r="48" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="66"/>
+      <c r="B48" s="67"/>
+      <c r="C48" s="67"/>
+      <c r="D48" s="68"/>
+      <c r="E48" s="69"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="21"/>
+      <c r="H48" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="I47" s="23"/>
-      <c r="J47" s="24"/>
-      <c r="K47" s="35"/>
-      <c r="L47" s="55"/>
-      <c r="M47" s="79"/>
-      <c r="N47" s="80"/>
-      <c r="O47" s="81"/>
-      <c r="P47" s="36"/>
-    </row>
-    <row r="48" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="59"/>
-      <c r="B48" s="60"/>
-      <c r="C48" s="60"/>
-      <c r="D48" s="61"/>
-      <c r="E48" s="62"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="H48" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="I48" s="32"/>
-      <c r="J48" s="56" t="s">
-        <v>29</v>
-      </c>
-      <c r="K48" s="46" t="s">
-        <v>108</v>
-      </c>
-      <c r="L48" s="51" t="s">
-        <v>100</v>
-      </c>
-      <c r="M48" s="77">
-        <f>O48*1.15</f>
-        <v>1604.135</v>
-      </c>
-      <c r="N48" s="82">
-        <f>O48*1.1</f>
-        <v>1534.3900000000003</v>
-      </c>
-      <c r="O48" s="82">
-        <v>1394.9</v>
-      </c>
-      <c r="P48" s="48">
-        <v>1308</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="59"/>
-      <c r="B49" s="60"/>
-      <c r="C49" s="60"/>
-      <c r="D49" s="61"/>
-      <c r="E49" s="62"/>
+      <c r="I48" s="23"/>
+      <c r="J48" s="24"/>
+      <c r="K48" s="35"/>
+      <c r="L48" s="54"/>
+      <c r="M48" s="64"/>
+      <c r="N48" s="65"/>
+      <c r="O48" s="36"/>
+      <c r="P48" s="36"/>
+    </row>
+    <row r="49" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="66"/>
+      <c r="B49" s="67"/>
+      <c r="C49" s="67"/>
+      <c r="D49" s="68"/>
+      <c r="E49" s="69"/>
       <c r="F49" s="4"/>
       <c r="G49" s="31" t="s">
         <v>58</v>
       </c>
       <c r="H49" s="31" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="I49" s="32"/>
-      <c r="J49" s="56" t="s">
-        <v>30</v>
-      </c>
-      <c r="K49" s="50" t="s">
-        <v>109</v>
-      </c>
-      <c r="L49" s="52" t="s">
-        <v>101</v>
-      </c>
-      <c r="M49" s="77">
-        <f t="shared" ref="M49:M64" si="2">O49*1.15</f>
-        <v>1234.8929999999998</v>
-      </c>
-      <c r="N49" s="82">
-        <f t="shared" ref="N49:N64" si="3">O49*1.1</f>
-        <v>1181.202</v>
-      </c>
-      <c r="O49" s="82">
-        <v>1073.82</v>
+      <c r="J49" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="K49" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="L49" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="M49" s="60">
+        <v>1672.9375000000002</v>
+      </c>
+      <c r="N49" s="62">
+        <v>1539.1025</v>
+      </c>
+      <c r="O49" s="62">
+        <v>1338.3500000000001</v>
       </c>
       <c r="P49" s="48">
-        <v>1067</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="50" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="59"/>
-      <c r="B50" s="60"/>
-      <c r="C50" s="60"/>
-      <c r="D50" s="61"/>
-      <c r="E50" s="62"/>
+      <c r="A50" s="66"/>
+      <c r="B50" s="67"/>
+      <c r="C50" s="67"/>
+      <c r="D50" s="68"/>
+      <c r="E50" s="69"/>
       <c r="F50" s="4"/>
       <c r="G50" s="31" t="s">
         <v>58</v>
       </c>
       <c r="H50" s="31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I50" s="32"/>
-      <c r="J50" s="56" t="s">
+      <c r="J50" s="55" t="s">
         <v>30</v>
       </c>
       <c r="K50" s="50" t="s">
@@ -3859,27 +3852,25 @@
       <c r="L50" s="52" t="s">
         <v>101</v>
       </c>
-      <c r="M50" s="77">
-        <f t="shared" si="2"/>
-        <v>929.77499999999998</v>
-      </c>
-      <c r="N50" s="82">
-        <f t="shared" si="3"/>
-        <v>889.35</v>
-      </c>
-      <c r="O50" s="82">
-        <v>808.5</v>
+      <c r="M50" s="60">
+        <v>1342.2749999999999</v>
+      </c>
+      <c r="N50" s="62">
+        <v>1234.8929999999998</v>
+      </c>
+      <c r="O50" s="62">
+        <v>1073.82</v>
       </c>
       <c r="P50" s="48">
-        <v>763</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="51" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="59"/>
-      <c r="B51" s="60"/>
-      <c r="C51" s="60"/>
-      <c r="D51" s="61"/>
-      <c r="E51" s="62"/>
+      <c r="A51" s="66"/>
+      <c r="B51" s="67"/>
+      <c r="C51" s="67"/>
+      <c r="D51" s="68"/>
+      <c r="E51" s="69"/>
       <c r="F51" s="4"/>
       <c r="G51" s="31" t="s">
         <v>58</v>
@@ -3888,8 +3879,8 @@
         <v>38</v>
       </c>
       <c r="I51" s="32"/>
-      <c r="J51" s="56" t="s">
-        <v>39</v>
+      <c r="J51" s="55" t="s">
+        <v>30</v>
       </c>
       <c r="K51" s="50" t="s">
         <v>109</v>
@@ -3897,65 +3888,61 @@
       <c r="L51" s="52" t="s">
         <v>101</v>
       </c>
-      <c r="M51" s="77">
-        <f t="shared" si="2"/>
-        <v>1132.03125</v>
-      </c>
-      <c r="N51" s="82">
-        <f t="shared" si="3"/>
-        <v>1082.8125</v>
-      </c>
-      <c r="O51" s="82">
-        <v>984.375</v>
+      <c r="M51" s="60">
+        <v>1010.625</v>
+      </c>
+      <c r="N51" s="62">
+        <v>929.77499999999998</v>
+      </c>
+      <c r="O51" s="62">
+        <v>808.5</v>
       </c>
       <c r="P51" s="48">
-        <v>953</v>
+        <v>763</v>
       </c>
     </row>
     <row r="52" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="59"/>
-      <c r="B52" s="60"/>
-      <c r="C52" s="60"/>
-      <c r="D52" s="61"/>
-      <c r="E52" s="62"/>
+      <c r="A52" s="66"/>
+      <c r="B52" s="67"/>
+      <c r="C52" s="67"/>
+      <c r="D52" s="68"/>
+      <c r="E52" s="69"/>
       <c r="F52" s="4"/>
       <c r="G52" s="31" t="s">
         <v>58</v>
       </c>
       <c r="H52" s="31" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I52" s="32"/>
-      <c r="J52" s="56" t="s">
-        <v>21</v>
-      </c>
-      <c r="K52" s="46" t="s">
-        <v>108</v>
-      </c>
-      <c r="L52" s="51" t="s">
-        <v>100</v>
-      </c>
-      <c r="M52" s="77">
-        <f t="shared" si="2"/>
-        <v>1007.7449999999999</v>
-      </c>
-      <c r="N52" s="82">
-        <f t="shared" si="3"/>
-        <v>963.93000000000006</v>
-      </c>
-      <c r="O52" s="82">
-        <v>876.3</v>
+      <c r="J52" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="K52" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="L52" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="M52" s="60">
+        <v>1230.46875</v>
+      </c>
+      <c r="N52" s="62">
+        <v>1132.03125</v>
+      </c>
+      <c r="O52" s="62">
+        <v>984.375</v>
       </c>
       <c r="P52" s="48">
-        <v>821</v>
+        <v>953</v>
       </c>
     </row>
     <row r="53" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="59"/>
-      <c r="B53" s="60"/>
-      <c r="C53" s="60"/>
-      <c r="D53" s="61"/>
-      <c r="E53" s="62"/>
+      <c r="A53" s="66"/>
+      <c r="B53" s="67"/>
+      <c r="C53" s="67"/>
+      <c r="D53" s="68"/>
+      <c r="E53" s="69"/>
       <c r="F53" s="4"/>
       <c r="G53" s="31" t="s">
         <v>58</v>
@@ -3964,8 +3951,8 @@
         <v>40</v>
       </c>
       <c r="I53" s="32"/>
-      <c r="J53" s="56" t="s">
-        <v>30</v>
+      <c r="J53" s="55" t="s">
+        <v>21</v>
       </c>
       <c r="K53" s="46" t="s">
         <v>108</v>
@@ -3973,27 +3960,25 @@
       <c r="L53" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="M53" s="77">
-        <f t="shared" si="2"/>
-        <v>1252.3499999999999</v>
-      </c>
-      <c r="N53" s="82">
-        <f t="shared" si="3"/>
-        <v>1197.9000000000001</v>
-      </c>
-      <c r="O53" s="82">
-        <v>1089</v>
+      <c r="M53" s="60">
+        <v>1095.375</v>
+      </c>
+      <c r="N53" s="62">
+        <v>1007.7449999999999</v>
+      </c>
+      <c r="O53" s="62">
+        <v>876.3</v>
       </c>
       <c r="P53" s="48">
-        <v>1017</v>
+        <v>821</v>
       </c>
     </row>
     <row r="54" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="59"/>
-      <c r="B54" s="60"/>
-      <c r="C54" s="60"/>
-      <c r="D54" s="61"/>
-      <c r="E54" s="62"/>
+      <c r="A54" s="66"/>
+      <c r="B54" s="67"/>
+      <c r="C54" s="67"/>
+      <c r="D54" s="68"/>
+      <c r="E54" s="69"/>
       <c r="F54" s="4"/>
       <c r="G54" s="31" t="s">
         <v>58</v>
@@ -4002,45 +3987,43 @@
         <v>40</v>
       </c>
       <c r="I54" s="32"/>
-      <c r="J54" s="56" t="s">
-        <v>39</v>
-      </c>
-      <c r="K54" s="50" t="s">
-        <v>109</v>
-      </c>
-      <c r="L54" s="52" t="s">
-        <v>101</v>
-      </c>
-      <c r="M54" s="77">
-        <f t="shared" si="2"/>
-        <v>738.98999999999978</v>
-      </c>
-      <c r="N54" s="82">
-        <f t="shared" si="3"/>
-        <v>706.86</v>
-      </c>
-      <c r="O54" s="82">
-        <v>642.59999999999991</v>
+      <c r="J54" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="K54" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="L54" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="M54" s="60">
+        <v>1361.25</v>
+      </c>
+      <c r="N54" s="62">
+        <v>1252.3499999999999</v>
+      </c>
+      <c r="O54" s="62">
+        <v>1089</v>
       </c>
       <c r="P54" s="48">
-        <v>635</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="55" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="59"/>
-      <c r="B55" s="60"/>
-      <c r="C55" s="60"/>
-      <c r="D55" s="61"/>
-      <c r="E55" s="62"/>
+      <c r="A55" s="66"/>
+      <c r="B55" s="67"/>
+      <c r="C55" s="67"/>
+      <c r="D55" s="68"/>
+      <c r="E55" s="69"/>
       <c r="F55" s="4"/>
       <c r="G55" s="31" t="s">
         <v>58</v>
       </c>
       <c r="H55" s="31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I55" s="32"/>
-      <c r="J55" s="56" t="s">
+      <c r="J55" s="55" t="s">
         <v>39</v>
       </c>
       <c r="K55" s="50" t="s">
@@ -4049,65 +4032,61 @@
       <c r="L55" s="52" t="s">
         <v>101</v>
       </c>
-      <c r="M55" s="77">
-        <f t="shared" si="2"/>
-        <v>975.53924999999992</v>
-      </c>
-      <c r="N55" s="82">
-        <f t="shared" si="3"/>
-        <v>933.12450000000001</v>
-      </c>
-      <c r="O55" s="82">
-        <v>848.29499999999996</v>
+      <c r="M55" s="60">
+        <v>803.24999999999989</v>
+      </c>
+      <c r="N55" s="62">
+        <v>738.98999999999978</v>
+      </c>
+      <c r="O55" s="62">
+        <v>642.59999999999991</v>
       </c>
       <c r="P55" s="48">
-        <v>871</v>
+        <v>635</v>
       </c>
     </row>
     <row r="56" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="59"/>
-      <c r="B56" s="60"/>
-      <c r="C56" s="60"/>
-      <c r="D56" s="61"/>
-      <c r="E56" s="62"/>
+      <c r="A56" s="66"/>
+      <c r="B56" s="67"/>
+      <c r="C56" s="67"/>
+      <c r="D56" s="68"/>
+      <c r="E56" s="69"/>
       <c r="F56" s="4"/>
       <c r="G56" s="31" t="s">
         <v>58</v>
       </c>
       <c r="H56" s="31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I56" s="32"/>
-      <c r="J56" s="56" t="s">
-        <v>30</v>
-      </c>
-      <c r="K56" s="46" t="s">
-        <v>108</v>
-      </c>
-      <c r="L56" s="51" t="s">
-        <v>100</v>
-      </c>
-      <c r="M56" s="77">
-        <f t="shared" si="2"/>
-        <v>1043.625</v>
-      </c>
-      <c r="N56" s="82">
-        <f t="shared" si="3"/>
-        <v>998.25000000000011</v>
-      </c>
-      <c r="O56" s="82">
-        <v>907.5</v>
+      <c r="J56" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="K56" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="L56" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="M56" s="60">
+        <v>1060.3687499999999</v>
+      </c>
+      <c r="N56" s="62">
+        <v>975.53924999999992</v>
+      </c>
+      <c r="O56" s="62">
+        <v>848.29499999999996</v>
       </c>
       <c r="P56" s="48">
-        <v>847</v>
+        <v>871</v>
       </c>
     </row>
     <row r="57" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="59"/>
-      <c r="B57" s="60"/>
-      <c r="C57" s="60"/>
-      <c r="D57" s="61"/>
-      <c r="E57" s="62"/>
+      <c r="A57" s="66"/>
+      <c r="B57" s="67"/>
+      <c r="C57" s="67"/>
+      <c r="D57" s="68"/>
+      <c r="E57" s="69"/>
       <c r="F57" s="4"/>
       <c r="G57" s="31" t="s">
         <v>58</v>
@@ -4116,8 +4095,8 @@
         <v>42</v>
       </c>
       <c r="I57" s="32"/>
-      <c r="J57" s="56" t="s">
-        <v>39</v>
+      <c r="J57" s="55" t="s">
+        <v>30</v>
       </c>
       <c r="K57" s="46" t="s">
         <v>108</v>
@@ -4125,36 +4104,34 @@
       <c r="L57" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="M57" s="77">
-        <f t="shared" si="2"/>
-        <v>1238.8950000000002</v>
-      </c>
-      <c r="N57" s="82">
-        <f t="shared" si="3"/>
-        <v>1185.0300000000002</v>
-      </c>
-      <c r="O57" s="82">
-        <v>1077.3000000000002</v>
+      <c r="M57" s="60">
+        <v>1134.375</v>
+      </c>
+      <c r="N57" s="62">
+        <v>1043.625</v>
+      </c>
+      <c r="O57" s="62">
+        <v>907.5</v>
       </c>
       <c r="P57" s="48">
-        <v>1017</v>
+        <v>847</v>
       </c>
     </row>
     <row r="58" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="59"/>
-      <c r="B58" s="60"/>
-      <c r="C58" s="60"/>
-      <c r="D58" s="61"/>
-      <c r="E58" s="62"/>
+      <c r="A58" s="66"/>
+      <c r="B58" s="67"/>
+      <c r="C58" s="67"/>
+      <c r="D58" s="68"/>
+      <c r="E58" s="69"/>
       <c r="F58" s="4"/>
       <c r="G58" s="31" t="s">
         <v>58</v>
       </c>
       <c r="H58" s="31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I58" s="32"/>
-      <c r="J58" s="56" t="s">
+      <c r="J58" s="55" t="s">
         <v>39</v>
       </c>
       <c r="K58" s="46" t="s">
@@ -4163,37 +4140,35 @@
       <c r="L58" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="M58" s="77">
-        <f t="shared" si="2"/>
-        <v>969.38099999999997</v>
-      </c>
-      <c r="N58" s="82">
-        <f t="shared" si="3"/>
-        <v>927.23400000000015</v>
-      </c>
-      <c r="O58" s="82">
-        <v>842.94</v>
+      <c r="M58" s="60">
+        <v>1346.6250000000002</v>
+      </c>
+      <c r="N58" s="62">
+        <v>1238.8950000000002</v>
+      </c>
+      <c r="O58" s="62">
+        <v>1077.3000000000002</v>
       </c>
       <c r="P58" s="48">
-        <v>824</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="59" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="59"/>
-      <c r="B59" s="60"/>
-      <c r="C59" s="60"/>
-      <c r="D59" s="61"/>
-      <c r="E59" s="62"/>
+      <c r="A59" s="66"/>
+      <c r="B59" s="67"/>
+      <c r="C59" s="67"/>
+      <c r="D59" s="68"/>
+      <c r="E59" s="69"/>
       <c r="F59" s="4"/>
       <c r="G59" s="31" t="s">
         <v>58</v>
       </c>
       <c r="H59" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I59" s="32"/>
-      <c r="J59" s="56" t="s">
-        <v>30</v>
+      <c r="J59" s="55" t="s">
+        <v>39</v>
       </c>
       <c r="K59" s="46" t="s">
         <v>108</v>
@@ -4201,27 +4176,25 @@
       <c r="L59" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="M59" s="77">
-        <f t="shared" si="2"/>
-        <v>943.0575</v>
-      </c>
-      <c r="N59" s="82">
-        <f t="shared" si="3"/>
-        <v>902.05500000000018</v>
-      </c>
-      <c r="O59" s="82">
-        <v>820.05000000000007</v>
+      <c r="M59" s="60">
+        <v>1053.6750000000002</v>
+      </c>
+      <c r="N59" s="62">
+        <v>969.38099999999997</v>
+      </c>
+      <c r="O59" s="62">
+        <v>842.94</v>
       </c>
       <c r="P59" s="48">
-        <v>763</v>
+        <v>824</v>
       </c>
     </row>
     <row r="60" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="59"/>
-      <c r="B60" s="60"/>
-      <c r="C60" s="60"/>
-      <c r="D60" s="61"/>
-      <c r="E60" s="62"/>
+      <c r="A60" s="66"/>
+      <c r="B60" s="67"/>
+      <c r="C60" s="67"/>
+      <c r="D60" s="68"/>
+      <c r="E60" s="69"/>
       <c r="F60" s="4"/>
       <c r="G60" s="31" t="s">
         <v>58</v>
@@ -4230,8 +4203,8 @@
         <v>44</v>
       </c>
       <c r="I60" s="32"/>
-      <c r="J60" s="56" t="s">
-        <v>39</v>
+      <c r="J60" s="55" t="s">
+        <v>30</v>
       </c>
       <c r="K60" s="46" t="s">
         <v>108</v>
@@ -4239,37 +4212,35 @@
       <c r="L60" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="M60" s="77">
-        <f t="shared" si="2"/>
-        <v>1115.73</v>
-      </c>
-      <c r="N60" s="82">
-        <f t="shared" si="3"/>
-        <v>1067.22</v>
-      </c>
-      <c r="O60" s="82">
-        <v>970.2</v>
+      <c r="M60" s="60">
+        <v>1025.0625</v>
+      </c>
+      <c r="N60" s="62">
+        <v>943.0575</v>
+      </c>
+      <c r="O60" s="62">
+        <v>820.05000000000007</v>
       </c>
       <c r="P60" s="48">
-        <v>924</v>
+        <v>763</v>
       </c>
     </row>
     <row r="61" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="59"/>
-      <c r="B61" s="60"/>
-      <c r="C61" s="60"/>
-      <c r="D61" s="61"/>
-      <c r="E61" s="62"/>
+      <c r="A61" s="66"/>
+      <c r="B61" s="67"/>
+      <c r="C61" s="67"/>
+      <c r="D61" s="68"/>
+      <c r="E61" s="69"/>
       <c r="F61" s="4"/>
       <c r="G61" s="31" t="s">
         <v>58</v>
       </c>
       <c r="H61" s="31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I61" s="32"/>
-      <c r="J61" s="56" t="s">
-        <v>46</v>
+      <c r="J61" s="55" t="s">
+        <v>39</v>
       </c>
       <c r="K61" s="46" t="s">
         <v>108</v>
@@ -4277,37 +4248,35 @@
       <c r="L61" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="M61" s="77">
-        <f t="shared" si="2"/>
-        <v>478.68749999999994</v>
-      </c>
-      <c r="N61" s="82">
-        <f t="shared" si="3"/>
-        <v>457.87500000000006</v>
-      </c>
-      <c r="O61" s="82">
-        <v>416.25</v>
+      <c r="M61" s="60">
+        <v>1212.75</v>
+      </c>
+      <c r="N61" s="62">
+        <v>1115.73</v>
+      </c>
+      <c r="O61" s="62">
+        <v>970.2</v>
       </c>
       <c r="P61" s="48">
-        <v>386</v>
+        <v>924</v>
       </c>
     </row>
     <row r="62" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="59"/>
-      <c r="B62" s="60"/>
-      <c r="C62" s="60"/>
-      <c r="D62" s="61"/>
-      <c r="E62" s="62"/>
+      <c r="A62" s="66"/>
+      <c r="B62" s="67"/>
+      <c r="C62" s="67"/>
+      <c r="D62" s="68"/>
+      <c r="E62" s="69"/>
       <c r="F62" s="4"/>
       <c r="G62" s="31" t="s">
         <v>58</v>
       </c>
       <c r="H62" s="31" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I62" s="32"/>
-      <c r="J62" s="56" t="s">
-        <v>30</v>
+      <c r="J62" s="55" t="s">
+        <v>46</v>
       </c>
       <c r="K62" s="46" t="s">
         <v>108</v>
@@ -4315,27 +4284,25 @@
       <c r="L62" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="M62" s="77">
-        <f t="shared" si="2"/>
-        <v>737.74800000000005</v>
-      </c>
-      <c r="N62" s="82">
-        <f t="shared" si="3"/>
-        <v>705.67200000000014</v>
-      </c>
-      <c r="O62" s="82">
-        <v>641.5200000000001</v>
+      <c r="M62" s="60">
+        <v>499.21875</v>
+      </c>
+      <c r="N62" s="62">
+        <v>459.28124999999994</v>
+      </c>
+      <c r="O62" s="62">
+        <v>399.375</v>
       </c>
       <c r="P62" s="48">
-        <v>598</v>
+        <v>386</v>
       </c>
     </row>
     <row r="63" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="59"/>
-      <c r="B63" s="60"/>
-      <c r="C63" s="60"/>
-      <c r="D63" s="61"/>
-      <c r="E63" s="62"/>
+      <c r="A63" s="66"/>
+      <c r="B63" s="67"/>
+      <c r="C63" s="67"/>
+      <c r="D63" s="68"/>
+      <c r="E63" s="69"/>
       <c r="F63" s="4"/>
       <c r="G63" s="31" t="s">
         <v>58</v>
@@ -4344,8 +4311,8 @@
         <v>47</v>
       </c>
       <c r="I63" s="32"/>
-      <c r="J63" s="56" t="s">
-        <v>39</v>
+      <c r="J63" s="55" t="s">
+        <v>30</v>
       </c>
       <c r="K63" s="46" t="s">
         <v>108</v>
@@ -4353,36 +4320,34 @@
       <c r="L63" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="M63" s="77">
-        <f t="shared" si="2"/>
-        <v>836.79750000000001</v>
-      </c>
-      <c r="N63" s="82">
-        <f t="shared" si="3"/>
-        <v>800.41500000000019</v>
-      </c>
-      <c r="O63" s="82">
-        <v>727.65000000000009</v>
+      <c r="M63" s="60">
+        <v>801.90000000000009</v>
+      </c>
+      <c r="N63" s="62">
+        <v>737.74800000000005</v>
+      </c>
+      <c r="O63" s="62">
+        <v>641.5200000000001</v>
       </c>
       <c r="P63" s="48">
-        <v>709</v>
+        <v>598</v>
       </c>
     </row>
     <row r="64" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="59"/>
-      <c r="B64" s="60"/>
-      <c r="C64" s="60"/>
-      <c r="D64" s="61"/>
-      <c r="E64" s="62"/>
+      <c r="A64" s="66"/>
+      <c r="B64" s="67"/>
+      <c r="C64" s="67"/>
+      <c r="D64" s="68"/>
+      <c r="E64" s="69"/>
       <c r="F64" s="4"/>
       <c r="G64" s="31" t="s">
         <v>58</v>
       </c>
       <c r="H64" s="31" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="I64" s="32"/>
-      <c r="J64" s="56" t="s">
+      <c r="J64" s="55" t="s">
         <v>39</v>
       </c>
       <c r="K64" s="46" t="s">
@@ -4391,203 +4356,193 @@
       <c r="L64" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="M64" s="77">
-        <f t="shared" si="2"/>
+      <c r="M64" s="60">
+        <v>909.56250000000011</v>
+      </c>
+      <c r="N64" s="62">
+        <v>836.79750000000001</v>
+      </c>
+      <c r="O64" s="62">
+        <v>727.65000000000009</v>
+      </c>
+      <c r="P64" s="48">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="66"/>
+      <c r="B65" s="67"/>
+      <c r="C65" s="67"/>
+      <c r="D65" s="68"/>
+      <c r="E65" s="69"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="H65" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="I65" s="32"/>
+      <c r="J65" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="K65" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="L65" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="M65" s="60">
+        <v>816.63749999999993</v>
+      </c>
+      <c r="N65" s="62">
         <v>751.30649999999991</v>
       </c>
-      <c r="N64" s="82">
-        <f t="shared" si="3"/>
-        <v>718.64099999999996</v>
-      </c>
-      <c r="O64" s="82">
+      <c r="O65" s="62">
         <v>653.30999999999995</v>
       </c>
-      <c r="P64" s="48">
+      <c r="P65" s="48">
         <v>635</v>
       </c>
     </row>
-    <row r="65" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="59"/>
-      <c r="B65" s="60"/>
-      <c r="C65" s="60"/>
-      <c r="D65" s="61"/>
-      <c r="E65" s="62"/>
-      <c r="F65" s="4"/>
-      <c r="G65" s="21"/>
-      <c r="H65" s="22" t="s">
+    <row r="66" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="66"/>
+      <c r="B66" s="67"/>
+      <c r="C66" s="67"/>
+      <c r="D66" s="68"/>
+      <c r="E66" s="69"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="21"/>
+      <c r="H66" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="I65" s="23"/>
-      <c r="J65" s="24"/>
-      <c r="K65" s="57"/>
-      <c r="L65" s="55"/>
-      <c r="M65" s="79"/>
-      <c r="N65" s="80"/>
-      <c r="O65" s="83" t="s">
+      <c r="I66" s="23"/>
+      <c r="J66" s="24"/>
+      <c r="K66" s="56"/>
+      <c r="L66" s="54"/>
+      <c r="M66" s="64"/>
+      <c r="N66" s="65"/>
+      <c r="O66" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="P65" s="49" t="s">
+      <c r="P66" s="49" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="66" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="59"/>
-      <c r="B66" s="60"/>
-      <c r="C66" s="60"/>
-      <c r="D66" s="61"/>
-      <c r="E66" s="62"/>
-      <c r="F66" s="4"/>
-      <c r="G66" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="H66" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="I66" s="31"/>
-      <c r="J66" s="56" t="s">
-        <v>39</v>
-      </c>
-      <c r="K66" s="50" t="s">
-        <v>96</v>
-      </c>
-      <c r="L66" s="52" t="s">
-        <v>102</v>
-      </c>
-      <c r="M66" s="77">
-        <f>O66*1.15</f>
-        <v>1358.4375</v>
-      </c>
-      <c r="N66" s="82">
-        <f>O66*1.1</f>
-        <v>1299.375</v>
-      </c>
-      <c r="O66" s="82">
-        <v>1181.25</v>
-      </c>
-      <c r="P66" s="48">
-        <v>1173</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="59"/>
-      <c r="B67" s="60"/>
-      <c r="C67" s="60"/>
-      <c r="D67" s="61"/>
-      <c r="E67" s="62"/>
+    <row r="67" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="66"/>
+      <c r="B67" s="67"/>
+      <c r="C67" s="67"/>
+      <c r="D67" s="68"/>
+      <c r="E67" s="69"/>
       <c r="F67" s="4"/>
       <c r="G67" s="31" t="s">
         <v>58</v>
       </c>
       <c r="H67" s="31" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="I67" s="31"/>
-      <c r="J67" s="56" t="s">
-        <v>51</v>
-      </c>
-      <c r="K67" s="46" t="s">
-        <v>50</v>
-      </c>
-      <c r="L67" s="51" t="s">
-        <v>103</v>
-      </c>
-      <c r="M67" s="77">
-        <f t="shared" ref="M67:M76" si="4">O67*1.15</f>
-        <v>1499.0249999999999</v>
-      </c>
-      <c r="N67" s="82">
-        <f t="shared" ref="N67:N76" si="5">O67*1.1</f>
-        <v>1433.8500000000001</v>
-      </c>
-      <c r="O67" s="82">
-        <v>1303.5</v>
+      <c r="J67" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="K67" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="L67" s="52" t="s">
+        <v>102</v>
+      </c>
+      <c r="M67" s="60">
+        <v>1476.5625</v>
+      </c>
+      <c r="N67" s="62">
+        <v>1358.4375</v>
+      </c>
+      <c r="O67" s="62">
+        <v>1181.25</v>
       </c>
       <c r="P67" s="48">
-        <v>1220</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="68" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="59"/>
-      <c r="B68" s="60"/>
-      <c r="C68" s="60"/>
-      <c r="D68" s="61"/>
-      <c r="E68" s="62"/>
+      <c r="A68" s="66"/>
+      <c r="B68" s="67"/>
+      <c r="C68" s="67"/>
+      <c r="D68" s="68"/>
+      <c r="E68" s="69"/>
       <c r="F68" s="4"/>
       <c r="G68" s="31" t="s">
         <v>58</v>
       </c>
       <c r="H68" s="31" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="I68" s="31"/>
-      <c r="J68" s="56" t="s">
-        <v>39</v>
-      </c>
-      <c r="K68" s="50" t="s">
-        <v>96</v>
-      </c>
-      <c r="L68" s="52" t="s">
-        <v>102</v>
-      </c>
-      <c r="M68" s="77">
-        <f t="shared" si="4"/>
-        <v>1168.2562499999999</v>
-      </c>
-      <c r="N68" s="82">
-        <f t="shared" si="5"/>
-        <v>1117.4625000000001</v>
-      </c>
-      <c r="O68" s="82">
-        <v>1015.875</v>
+      <c r="J68" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="K68" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="L68" s="51" t="s">
+        <v>103</v>
+      </c>
+      <c r="M68" s="60">
+        <v>1629.375</v>
+      </c>
+      <c r="N68" s="62">
+        <v>1499.0249999999999</v>
+      </c>
+      <c r="O68" s="62">
+        <v>1303.5</v>
       </c>
       <c r="P68" s="48">
-        <v>984</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="69" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="59"/>
-      <c r="B69" s="60"/>
-      <c r="C69" s="60"/>
-      <c r="D69" s="61"/>
-      <c r="E69" s="62"/>
+      <c r="A69" s="66"/>
+      <c r="B69" s="67"/>
+      <c r="C69" s="67"/>
+      <c r="D69" s="68"/>
+      <c r="E69" s="69"/>
       <c r="F69" s="4"/>
       <c r="G69" s="31" t="s">
         <v>58</v>
       </c>
       <c r="H69" s="31" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I69" s="31"/>
-      <c r="J69" s="56" t="s">
-        <v>30</v>
-      </c>
-      <c r="K69" s="46" t="s">
-        <v>50</v>
-      </c>
-      <c r="L69" s="51" t="s">
-        <v>103</v>
-      </c>
-      <c r="M69" s="77">
-        <f t="shared" si="4"/>
-        <v>1252.3499999999999</v>
-      </c>
-      <c r="N69" s="82">
-        <f t="shared" si="5"/>
-        <v>1197.9000000000001</v>
-      </c>
-      <c r="O69" s="82">
-        <v>1089</v>
+      <c r="J69" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="K69" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="L69" s="52" t="s">
+        <v>102</v>
+      </c>
+      <c r="M69" s="60">
+        <v>1269.84375</v>
+      </c>
+      <c r="N69" s="62">
+        <v>1168.2562499999999</v>
+      </c>
+      <c r="O69" s="62">
+        <v>1015.875</v>
       </c>
       <c r="P69" s="48">
-        <v>1017</v>
+        <v>984</v>
       </c>
     </row>
     <row r="70" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="59"/>
-      <c r="B70" s="60"/>
-      <c r="C70" s="60"/>
-      <c r="D70" s="61"/>
-      <c r="E70" s="62"/>
+      <c r="A70" s="66"/>
+      <c r="B70" s="67"/>
+      <c r="C70" s="67"/>
+      <c r="D70" s="68"/>
+      <c r="E70" s="69"/>
       <c r="F70" s="4"/>
       <c r="G70" s="31" t="s">
         <v>58</v>
@@ -4596,8 +4551,8 @@
         <v>52</v>
       </c>
       <c r="I70" s="31"/>
-      <c r="J70" s="56" t="s">
-        <v>39</v>
+      <c r="J70" s="55" t="s">
+        <v>30</v>
       </c>
       <c r="K70" s="46" t="s">
         <v>50</v>
@@ -4605,36 +4560,34 @@
       <c r="L70" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="M70" s="77">
-        <f t="shared" si="4"/>
-        <v>1485.2249999999999</v>
-      </c>
-      <c r="N70" s="82">
-        <f t="shared" si="5"/>
-        <v>1420.65</v>
-      </c>
-      <c r="O70" s="82">
-        <v>1291.5</v>
+      <c r="M70" s="60">
+        <v>1361.25</v>
+      </c>
+      <c r="N70" s="62">
+        <v>1252.3499999999999</v>
+      </c>
+      <c r="O70" s="62">
+        <v>1089</v>
       </c>
       <c r="P70" s="48">
-        <v>1271</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="71" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="59"/>
-      <c r="B71" s="60"/>
-      <c r="C71" s="60"/>
-      <c r="D71" s="61"/>
-      <c r="E71" s="62"/>
+      <c r="A71" s="66"/>
+      <c r="B71" s="67"/>
+      <c r="C71" s="67"/>
+      <c r="D71" s="68"/>
+      <c r="E71" s="69"/>
       <c r="F71" s="4"/>
       <c r="G71" s="31" t="s">
         <v>58</v>
       </c>
       <c r="H71" s="31" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="I71" s="31"/>
-      <c r="J71" s="56" t="s">
+      <c r="J71" s="55" t="s">
         <v>39</v>
       </c>
       <c r="K71" s="46" t="s">
@@ -4643,37 +4596,35 @@
       <c r="L71" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="M71" s="77">
-        <f t="shared" si="4"/>
-        <v>1184.5575000000001</v>
-      </c>
-      <c r="N71" s="82">
-        <f t="shared" si="5"/>
-        <v>1133.0550000000003</v>
-      </c>
-      <c r="O71" s="82">
-        <v>1030.0500000000002</v>
+      <c r="M71" s="60">
+        <v>1614.375</v>
+      </c>
+      <c r="N71" s="62">
+        <v>1485.2249999999999</v>
+      </c>
+      <c r="O71" s="62">
+        <v>1291.5</v>
       </c>
       <c r="P71" s="48">
-        <v>984</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="72" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="59"/>
-      <c r="B72" s="60"/>
-      <c r="C72" s="60"/>
-      <c r="D72" s="61"/>
-      <c r="E72" s="62"/>
+      <c r="A72" s="66"/>
+      <c r="B72" s="67"/>
+      <c r="C72" s="67"/>
+      <c r="D72" s="68"/>
+      <c r="E72" s="69"/>
       <c r="F72" s="4"/>
       <c r="G72" s="31" t="s">
         <v>58</v>
       </c>
       <c r="H72" s="31" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="I72" s="31"/>
-      <c r="J72" s="56" t="s">
-        <v>51</v>
+      <c r="J72" s="55" t="s">
+        <v>39</v>
       </c>
       <c r="K72" s="46" t="s">
         <v>50</v>
@@ -4681,27 +4632,25 @@
       <c r="L72" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="M72" s="77">
-        <f t="shared" si="4"/>
-        <v>1127.115</v>
-      </c>
-      <c r="N72" s="82">
-        <f t="shared" si="5"/>
-        <v>1078.1100000000001</v>
-      </c>
-      <c r="O72" s="82">
-        <v>980.1</v>
+      <c r="M72" s="60">
+        <v>1287.5625000000002</v>
+      </c>
+      <c r="N72" s="62">
+        <v>1184.5575000000001</v>
+      </c>
+      <c r="O72" s="62">
+        <v>1030.0500000000002</v>
       </c>
       <c r="P72" s="48">
-        <v>897</v>
+        <v>984</v>
       </c>
     </row>
     <row r="73" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="59"/>
-      <c r="B73" s="60"/>
-      <c r="C73" s="60"/>
-      <c r="D73" s="61"/>
-      <c r="E73" s="62"/>
+      <c r="A73" s="66"/>
+      <c r="B73" s="67"/>
+      <c r="C73" s="67"/>
+      <c r="D73" s="68"/>
+      <c r="E73" s="69"/>
       <c r="F73" s="4"/>
       <c r="G73" s="31" t="s">
         <v>58</v>
@@ -4710,8 +4659,8 @@
         <v>53</v>
       </c>
       <c r="I73" s="31"/>
-      <c r="J73" s="56" t="s">
-        <v>39</v>
+      <c r="J73" s="55" t="s">
+        <v>51</v>
       </c>
       <c r="K73" s="46" t="s">
         <v>50</v>
@@ -4719,37 +4668,35 @@
       <c r="L73" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="M73" s="77">
-        <f t="shared" si="4"/>
-        <v>1329.4575000000002</v>
-      </c>
-      <c r="N73" s="82">
-        <f t="shared" si="5"/>
-        <v>1271.6550000000002</v>
-      </c>
-      <c r="O73" s="82">
-        <v>1156.0500000000002</v>
+      <c r="M73" s="60">
+        <v>1225.125</v>
+      </c>
+      <c r="N73" s="62">
+        <v>1127.115</v>
+      </c>
+      <c r="O73" s="62">
+        <v>980.1</v>
       </c>
       <c r="P73" s="48">
-        <v>1130</v>
+        <v>897</v>
       </c>
     </row>
     <row r="74" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="59"/>
-      <c r="B74" s="60"/>
-      <c r="C74" s="60"/>
-      <c r="D74" s="61"/>
-      <c r="E74" s="62"/>
+      <c r="A74" s="66"/>
+      <c r="B74" s="67"/>
+      <c r="C74" s="67"/>
+      <c r="D74" s="68"/>
+      <c r="E74" s="69"/>
       <c r="F74" s="4"/>
       <c r="G74" s="31" t="s">
         <v>58</v>
       </c>
       <c r="H74" s="31" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="I74" s="31"/>
-      <c r="J74" s="56" t="s">
-        <v>51</v>
+      <c r="J74" s="55" t="s">
+        <v>39</v>
       </c>
       <c r="K74" s="46" t="s">
         <v>50</v>
@@ -4757,27 +4704,25 @@
       <c r="L74" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="M74" s="77">
-        <f t="shared" si="4"/>
-        <v>881.19899999999996</v>
-      </c>
-      <c r="N74" s="82">
-        <f t="shared" si="5"/>
-        <v>842.88600000000008</v>
-      </c>
-      <c r="O74" s="82">
-        <v>766.26</v>
+      <c r="M74" s="60">
+        <v>1445.0625000000002</v>
+      </c>
+      <c r="N74" s="62">
+        <v>1329.4575000000002</v>
+      </c>
+      <c r="O74" s="62">
+        <v>1156.0500000000002</v>
       </c>
       <c r="P74" s="48">
-        <v>709</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="75" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="59"/>
-      <c r="B75" s="60"/>
-      <c r="C75" s="60"/>
-      <c r="D75" s="61"/>
-      <c r="E75" s="62"/>
+      <c r="A75" s="66"/>
+      <c r="B75" s="67"/>
+      <c r="C75" s="67"/>
+      <c r="D75" s="68"/>
+      <c r="E75" s="69"/>
       <c r="F75" s="4"/>
       <c r="G75" s="31" t="s">
         <v>58</v>
@@ -4786,8 +4731,8 @@
         <v>45</v>
       </c>
       <c r="I75" s="31"/>
-      <c r="J75" s="56" t="s">
-        <v>39</v>
+      <c r="J75" s="55" t="s">
+        <v>51</v>
       </c>
       <c r="K75" s="46" t="s">
         <v>50</v>
@@ -4795,36 +4740,34 @@
       <c r="L75" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="M75" s="77">
-        <f t="shared" si="4"/>
-        <v>1043.28</v>
-      </c>
-      <c r="N75" s="82">
-        <f t="shared" si="5"/>
-        <v>997.92000000000019</v>
-      </c>
-      <c r="O75" s="82">
-        <v>907.2</v>
+      <c r="M75" s="60">
+        <v>957.82500000000005</v>
+      </c>
+      <c r="N75" s="62">
+        <v>881.19899999999996</v>
+      </c>
+      <c r="O75" s="62">
+        <v>766.26</v>
       </c>
       <c r="P75" s="48">
-        <v>871</v>
+        <v>709</v>
       </c>
     </row>
     <row r="76" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="59"/>
-      <c r="B76" s="60"/>
-      <c r="C76" s="60"/>
-      <c r="D76" s="61"/>
-      <c r="E76" s="62"/>
+      <c r="A76" s="66"/>
+      <c r="B76" s="67"/>
+      <c r="C76" s="67"/>
+      <c r="D76" s="68"/>
+      <c r="E76" s="69"/>
       <c r="F76" s="4"/>
       <c r="G76" s="31" t="s">
         <v>58</v>
       </c>
       <c r="H76" s="31" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="I76" s="31"/>
-      <c r="J76" s="56" t="s">
+      <c r="J76" s="55" t="s">
         <v>39</v>
       </c>
       <c r="K76" s="46" t="s">
@@ -4833,99 +4776,95 @@
       <c r="L76" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="M76" s="77">
-        <f t="shared" si="4"/>
+      <c r="M76" s="60">
+        <v>1134</v>
+      </c>
+      <c r="N76" s="62">
+        <v>1043.28</v>
+      </c>
+      <c r="O76" s="62">
+        <v>907.2</v>
+      </c>
+      <c r="P76" s="48">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="66"/>
+      <c r="B77" s="67"/>
+      <c r="C77" s="67"/>
+      <c r="D77" s="68"/>
+      <c r="E77" s="69"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="H77" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="I77" s="31"/>
+      <c r="J77" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="K77" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="L77" s="51" t="s">
+        <v>103</v>
+      </c>
+      <c r="M77" s="60">
+        <v>945</v>
+      </c>
+      <c r="N77" s="62">
         <v>869.4</v>
       </c>
-      <c r="N76" s="82">
-        <f t="shared" si="5"/>
-        <v>831.6</v>
-      </c>
-      <c r="O76" s="82">
+      <c r="O77" s="62">
         <v>756</v>
       </c>
-      <c r="P76" s="48">
+      <c r="P77" s="48">
         <v>744</v>
       </c>
     </row>
-    <row r="77" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="59"/>
-      <c r="B77" s="60"/>
-      <c r="C77" s="60"/>
-      <c r="D77" s="61"/>
-      <c r="E77" s="62"/>
-      <c r="F77" s="4"/>
-      <c r="G77" s="21"/>
-      <c r="H77" s="22" t="s">
+    <row r="78" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="66"/>
+      <c r="B78" s="67"/>
+      <c r="C78" s="67"/>
+      <c r="D78" s="68"/>
+      <c r="E78" s="69"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="21"/>
+      <c r="H78" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="I77" s="23"/>
-      <c r="J77" s="24"/>
-      <c r="K77" s="57"/>
-      <c r="L77" s="55"/>
-      <c r="M77" s="79"/>
-      <c r="N77" s="80"/>
-      <c r="O77" s="83" t="s">
+      <c r="I78" s="23"/>
+      <c r="J78" s="24"/>
+      <c r="K78" s="56"/>
+      <c r="L78" s="54"/>
+      <c r="M78" s="64"/>
+      <c r="N78" s="65"/>
+      <c r="O78" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="P77" s="49" t="s">
+      <c r="P78" s="49" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="78" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="59"/>
-      <c r="B78" s="60"/>
-      <c r="C78" s="60"/>
-      <c r="D78" s="61"/>
-      <c r="E78" s="62"/>
-      <c r="F78" s="4"/>
-      <c r="G78" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="H78" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="I78" s="31"/>
-      <c r="J78" s="56" t="s">
-        <v>39</v>
-      </c>
-      <c r="K78" s="50" t="s">
-        <v>97</v>
-      </c>
-      <c r="L78" s="52" t="s">
-        <v>98</v>
-      </c>
-      <c r="M78" s="77">
-        <f>O78*1.15</f>
-        <v>1467.1125</v>
-      </c>
-      <c r="N78" s="82">
-        <f>O78*1.1</f>
-        <v>1403.325</v>
-      </c>
-      <c r="O78" s="82">
-        <v>1275.75</v>
-      </c>
-      <c r="P78" s="48">
-        <v>1271</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="59"/>
-      <c r="B79" s="60"/>
-      <c r="C79" s="60"/>
-      <c r="D79" s="61"/>
-      <c r="E79" s="62"/>
+    <row r="79" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="66"/>
+      <c r="B79" s="67"/>
+      <c r="C79" s="67"/>
+      <c r="D79" s="68"/>
+      <c r="E79" s="69"/>
       <c r="F79" s="4"/>
       <c r="G79" s="31" t="s">
         <v>58</v>
       </c>
       <c r="H79" s="31" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="I79" s="31"/>
-      <c r="J79" s="56" t="s">
-        <v>51</v>
+      <c r="J79" s="55" t="s">
+        <v>39</v>
       </c>
       <c r="K79" s="50" t="s">
         <v>97</v>
@@ -4933,27 +4872,25 @@
       <c r="L79" s="52" t="s">
         <v>98</v>
       </c>
-      <c r="M79" s="77">
-        <f t="shared" ref="M79:M86" si="6">O79*1.15</f>
-        <v>819.72</v>
-      </c>
-      <c r="N79" s="82">
-        <f t="shared" ref="N79:N86" si="7">O79*1.1</f>
-        <v>784.08000000000015</v>
-      </c>
-      <c r="O79" s="82">
-        <v>712.80000000000007</v>
+      <c r="M79" s="60">
+        <v>1594.6875</v>
+      </c>
+      <c r="N79" s="62">
+        <v>1467.1125</v>
+      </c>
+      <c r="O79" s="62">
+        <v>1275.75</v>
       </c>
       <c r="P79" s="48">
-        <v>663</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="80" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="59"/>
-      <c r="B80" s="60"/>
-      <c r="C80" s="60"/>
-      <c r="D80" s="61"/>
-      <c r="E80" s="62"/>
+      <c r="A80" s="66"/>
+      <c r="B80" s="67"/>
+      <c r="C80" s="67"/>
+      <c r="D80" s="68"/>
+      <c r="E80" s="69"/>
       <c r="F80" s="4"/>
       <c r="G80" s="31" t="s">
         <v>58</v>
@@ -4962,8 +4899,8 @@
         <v>10</v>
       </c>
       <c r="I80" s="31"/>
-      <c r="J80" s="56" t="s">
-        <v>39</v>
+      <c r="J80" s="55" t="s">
+        <v>51</v>
       </c>
       <c r="K80" s="50" t="s">
         <v>97</v>
@@ -4971,75 +4908,71 @@
       <c r="L80" s="52" t="s">
         <v>98</v>
       </c>
-      <c r="M80" s="77">
-        <f t="shared" si="6"/>
-        <v>981.69749999999999</v>
-      </c>
-      <c r="N80" s="82">
-        <f t="shared" si="7"/>
-        <v>939.01500000000021</v>
-      </c>
-      <c r="O80" s="82">
-        <v>853.65000000000009</v>
+      <c r="M80" s="60">
+        <v>891.00000000000011</v>
+      </c>
+      <c r="N80" s="62">
+        <v>819.72</v>
+      </c>
+      <c r="O80" s="62">
+        <v>712.80000000000007</v>
       </c>
       <c r="P80" s="48">
-        <v>847</v>
+        <v>663</v>
       </c>
     </row>
     <row r="81" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="59"/>
-      <c r="B81" s="60"/>
-      <c r="C81" s="60"/>
-      <c r="D81" s="61"/>
-      <c r="E81" s="62"/>
+      <c r="A81" s="66"/>
+      <c r="B81" s="67"/>
+      <c r="C81" s="67"/>
+      <c r="D81" s="68"/>
+      <c r="E81" s="69"/>
       <c r="F81" s="4"/>
       <c r="G81" s="31" t="s">
         <v>58</v>
       </c>
       <c r="H81" s="31" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="I81" s="31"/>
-      <c r="J81" s="56" t="s">
-        <v>51</v>
-      </c>
-      <c r="K81" s="46" t="s">
-        <v>55</v>
-      </c>
-      <c r="L81" s="51" t="s">
-        <v>104</v>
-      </c>
-      <c r="M81" s="77">
-        <f t="shared" si="6"/>
-        <v>1373.79</v>
-      </c>
-      <c r="N81" s="82">
-        <f t="shared" si="7"/>
-        <v>1314.0600000000002</v>
-      </c>
-      <c r="O81" s="82">
-        <v>1194.6000000000001</v>
+      <c r="J81" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="K81" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="L81" s="52" t="s">
+        <v>98</v>
+      </c>
+      <c r="M81" s="60">
+        <v>1067.0625</v>
+      </c>
+      <c r="N81" s="62">
+        <v>981.69749999999999</v>
+      </c>
+      <c r="O81" s="62">
+        <v>853.65000000000009</v>
       </c>
       <c r="P81" s="48">
-        <v>1089</v>
+        <v>847</v>
       </c>
     </row>
     <row r="82" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="59"/>
-      <c r="B82" s="60"/>
-      <c r="C82" s="60"/>
-      <c r="D82" s="61"/>
-      <c r="E82" s="62"/>
+      <c r="A82" s="66"/>
+      <c r="B82" s="67"/>
+      <c r="C82" s="67"/>
+      <c r="D82" s="68"/>
+      <c r="E82" s="69"/>
       <c r="F82" s="4"/>
       <c r="G82" s="31" t="s">
         <v>58</v>
       </c>
       <c r="H82" s="31" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I82" s="31"/>
-      <c r="J82" s="56" t="s">
-        <v>39</v>
+      <c r="J82" s="55" t="s">
+        <v>51</v>
       </c>
       <c r="K82" s="46" t="s">
         <v>55</v>
@@ -5047,37 +4980,35 @@
       <c r="L82" s="51" t="s">
         <v>104</v>
       </c>
-      <c r="M82" s="77">
-        <f t="shared" si="6"/>
-        <v>1593.8999999999999</v>
-      </c>
-      <c r="N82" s="82">
-        <f t="shared" si="7"/>
-        <v>1524.6000000000001</v>
-      </c>
-      <c r="O82" s="82">
-        <v>1386</v>
+      <c r="M82" s="60">
+        <v>1493.2500000000002</v>
+      </c>
+      <c r="N82" s="62">
+        <v>1373.79</v>
+      </c>
+      <c r="O82" s="62">
+        <v>1194.6000000000001</v>
       </c>
       <c r="P82" s="48">
-        <v>1326</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="83" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="59"/>
-      <c r="B83" s="60"/>
-      <c r="C83" s="60"/>
-      <c r="D83" s="61"/>
-      <c r="E83" s="62"/>
+      <c r="A83" s="66"/>
+      <c r="B83" s="67"/>
+      <c r="C83" s="67"/>
+      <c r="D83" s="68"/>
+      <c r="E83" s="69"/>
       <c r="F83" s="4"/>
       <c r="G83" s="31" t="s">
         <v>58</v>
       </c>
       <c r="H83" s="31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I83" s="31"/>
-      <c r="J83" s="56" t="s">
-        <v>30</v>
+      <c r="J83" s="55" t="s">
+        <v>39</v>
       </c>
       <c r="K83" s="46" t="s">
         <v>55</v>
@@ -5085,27 +5016,25 @@
       <c r="L83" s="51" t="s">
         <v>104</v>
       </c>
-      <c r="M83" s="77">
-        <f t="shared" si="6"/>
-        <v>1237.1699999999998</v>
-      </c>
-      <c r="N83" s="82">
-        <f t="shared" si="7"/>
-        <v>1183.3800000000001</v>
-      </c>
-      <c r="O83" s="82">
-        <v>1075.8</v>
+      <c r="M83" s="60">
+        <v>1732.5</v>
+      </c>
+      <c r="N83" s="62">
+        <v>1593.8999999999999</v>
+      </c>
+      <c r="O83" s="62">
+        <v>1386</v>
       </c>
       <c r="P83" s="48">
-        <v>1017</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="84" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="59"/>
-      <c r="B84" s="60"/>
-      <c r="C84" s="60"/>
-      <c r="D84" s="61"/>
-      <c r="E84" s="62"/>
+      <c r="A84" s="66"/>
+      <c r="B84" s="67"/>
+      <c r="C84" s="67"/>
+      <c r="D84" s="68"/>
+      <c r="E84" s="69"/>
       <c r="F84" s="4"/>
       <c r="G84" s="31" t="s">
         <v>58</v>
@@ -5114,8 +5043,8 @@
         <v>53</v>
       </c>
       <c r="I84" s="31"/>
-      <c r="J84" s="56" t="s">
-        <v>39</v>
+      <c r="J84" s="55" t="s">
+        <v>30</v>
       </c>
       <c r="K84" s="46" t="s">
         <v>55</v>
@@ -5123,36 +5052,34 @@
       <c r="L84" s="51" t="s">
         <v>104</v>
       </c>
-      <c r="M84" s="77">
-        <f t="shared" si="6"/>
-        <v>1477.9799999999996</v>
-      </c>
-      <c r="N84" s="82">
-        <f t="shared" si="7"/>
-        <v>1413.72</v>
-      </c>
-      <c r="O84" s="82">
-        <v>1285.1999999999998</v>
+      <c r="M84" s="60">
+        <v>1344.75</v>
+      </c>
+      <c r="N84" s="62">
+        <v>1237.1699999999998</v>
+      </c>
+      <c r="O84" s="62">
+        <v>1075.8</v>
       </c>
       <c r="P84" s="48">
-        <v>1271</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="85" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="59"/>
-      <c r="B85" s="60"/>
-      <c r="C85" s="60"/>
-      <c r="D85" s="61"/>
-      <c r="E85" s="66"/>
+      <c r="A85" s="66"/>
+      <c r="B85" s="67"/>
+      <c r="C85" s="67"/>
+      <c r="D85" s="68"/>
+      <c r="E85" s="69"/>
       <c r="F85" s="4"/>
       <c r="G85" s="31" t="s">
         <v>58</v>
       </c>
       <c r="H85" s="31" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="I85" s="31"/>
-      <c r="J85" s="56" t="s">
+      <c r="J85" s="55" t="s">
         <v>39</v>
       </c>
       <c r="K85" s="46" t="s">
@@ -5161,36 +5088,34 @@
       <c r="L85" s="51" t="s">
         <v>104</v>
       </c>
-      <c r="M85" s="77">
-        <f t="shared" si="6"/>
-        <v>1104.8625</v>
-      </c>
-      <c r="N85" s="82">
-        <f t="shared" si="7"/>
-        <v>1056.825</v>
-      </c>
-      <c r="O85" s="82">
-        <v>960.75</v>
+      <c r="M85" s="60">
+        <v>1606.4999999999998</v>
+      </c>
+      <c r="N85" s="62">
+        <v>1477.9799999999996</v>
+      </c>
+      <c r="O85" s="62">
+        <v>1285.1999999999998</v>
       </c>
       <c r="P85" s="48">
-        <v>924</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="86" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="63"/>
-      <c r="B86" s="64"/>
-      <c r="C86" s="64"/>
-      <c r="D86" s="65"/>
-      <c r="E86" s="67"/>
-      <c r="F86" s="16"/>
+      <c r="A86" s="66"/>
+      <c r="B86" s="67"/>
+      <c r="C86" s="67"/>
+      <c r="D86" s="68"/>
+      <c r="E86" s="73"/>
+      <c r="F86" s="4"/>
       <c r="G86" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="H86" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="I86" s="53"/>
-      <c r="J86" s="58" t="s">
+      <c r="H86" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="I86" s="31"/>
+      <c r="J86" s="55" t="s">
         <v>39</v>
       </c>
       <c r="K86" s="46" t="s">
@@ -5199,27 +5124,61 @@
       <c r="L86" s="51" t="s">
         <v>104</v>
       </c>
-      <c r="M86" s="77">
-        <f t="shared" si="6"/>
+      <c r="M86" s="60">
+        <v>1200.9375</v>
+      </c>
+      <c r="N86" s="62">
+        <v>1104.8625</v>
+      </c>
+      <c r="O86" s="62">
+        <v>960.75</v>
+      </c>
+      <c r="P86" s="48">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="70"/>
+      <c r="B87" s="71"/>
+      <c r="C87" s="71"/>
+      <c r="D87" s="72"/>
+      <c r="E87" s="74"/>
+      <c r="F87" s="16"/>
+      <c r="G87" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="H87" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="I87" s="31"/>
+      <c r="J87" s="63" t="s">
+        <v>39</v>
+      </c>
+      <c r="K87" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="L87" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="M87" s="60">
+        <v>1051.3125</v>
+      </c>
+      <c r="N87" s="62">
         <v>967.20749999999987</v>
       </c>
-      <c r="N86" s="82">
-        <f t="shared" si="7"/>
-        <v>925.15499999999997</v>
-      </c>
-      <c r="O86" s="82">
+      <c r="O87" s="62">
         <v>841.05</v>
       </c>
-      <c r="P86" s="48">
+      <c r="P87" s="48">
         <v>824</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A14:D84"/>
-    <mergeCell ref="E14:E84"/>
-    <mergeCell ref="A85:D86"/>
-    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="A14:D85"/>
+    <mergeCell ref="E14:E85"/>
+    <mergeCell ref="A86:D87"/>
+    <mergeCell ref="E86:E87"/>
     <mergeCell ref="A8:K8"/>
     <mergeCell ref="A9:K9"/>
     <mergeCell ref="A11:B11"/>
